--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD8894C-8B88-4370-8149-F14818B0C3B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158998C4-2FA6-4101-8208-7E7D5B22F901}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -615,6 +615,39 @@
     <t>全員</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木、秀田、大石</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒデタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オオイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千野、川辺</t>
+    <rPh sb="0" eb="2">
+      <t>チノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川辺、大石</t>
+    <rPh sb="0" eb="2">
+      <t>カワベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オオイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1432,7 +1465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,9 +1492,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1490,9 +1520,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,12 +1527,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1790,6 +1811,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2398,143 +2422,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="63.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="38.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="13" customWidth="1"/>
+    <col min="1" max="2" width="2.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="2.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="63.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="38.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="12" customWidth="1"/>
     <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="82" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="112">
+      <c r="L1" s="108">
         <v>43984</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="112">
+      <c r="M1" s="109"/>
+      <c r="N1" s="108">
         <v>43985</v>
       </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="112">
+      <c r="O1" s="109"/>
+      <c r="P1" s="108">
         <v>43986</v>
       </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="112">
+      <c r="Q1" s="109"/>
+      <c r="R1" s="108">
         <v>43987</v>
       </c>
-      <c r="S1" s="113"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="116" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="114" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="117" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="114" t="s">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="115"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="120" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="119"/>
-      <c r="N3" s="118" t="s">
+      <c r="M3" s="115"/>
+      <c r="N3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="118" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="121" t="s">
+      <c r="Q3" s="115"/>
+      <c r="R3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="121"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="93"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2560,64 +2584,88 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="16" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="18" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="23">
+        <f>SUM(L7,L23,L43,L59,L77,L85,L99)</f>
+        <v>14</v>
+      </c>
+      <c r="M5" s="23">
+        <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
+        <v>15</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P5" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R5" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S5" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="109"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2625,111 +2673,119 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="40">
-        <v>15</v>
-      </c>
-      <c r="M7" s="28">
+      <c r="K7" s="13"/>
+      <c r="L7" s="36">
+        <f>SUM(L9,L15)</f>
+        <v>14</v>
+      </c>
+      <c r="M7" s="36">
+        <f>SUM(M9,M15)</f>
         <v>10</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="110"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="23" t="str">
+      <c r="C9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="21" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="26">
+        <f>SUM(L11,L13)</f>
+        <v>13.5</v>
+      </c>
+      <c r="M9" s="26">
+        <f>SUM(M11,M13)</f>
+        <v>6.8</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="24" t="str">
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="22" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="64" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2741,67 +2797,69 @@
         <v>5</v>
       </c>
       <c r="K11" s="9">
+        <f>SUM(L11:S11)</f>
         <v>10</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="29">
         <v>10</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="52" t="str">
+      <c r="A12" s="53"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="48" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="48">
         <v>5</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
+        <f>SUM(L12:S12)</f>
         <v>10</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="37">
         <v>10</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="58" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="64" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2812,110 +2870,128 @@
       <c r="J13" s="8">
         <v>5</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="M13" s="31">
+      <c r="K13" s="9">
+        <f t="shared" ref="K13:K76" si="1">SUM(L13:S13)</f>
+        <v>10.3</v>
+      </c>
+      <c r="L13" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="M13" s="27">
         <v>6.8</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="52" t="str">
+      <c r="A14" s="53"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="48" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56">
+      <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="23" t="str">
+      <c r="C15" s="64"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="21" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="9">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="L15" s="29">
+        <f>SUM(L17,L19,L21)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="29">
+        <f>SUM(M17,M19,M21)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="24" t="str">
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="22" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="64" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2926,58 +3002,64 @@
       <c r="J17" s="8">
         <v>5</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="30">
+      <c r="K17" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="26">
         <v>0.5</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="27">
         <v>2</v>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="52" t="str">
+      <c r="A18" s="53"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="48" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2988,58 +3070,64 @@
       <c r="J19" s="8">
         <v>5</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="33">
+      <c r="K19" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="29">
         <v>0</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="27">
         <v>1</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="52" t="str">
+      <c r="A20" s="53"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="48" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="58" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="64" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3050,222 +3138,256 @@
       <c r="J21" s="8">
         <v>1</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="31">
+      <c r="K21" s="9">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="52" t="str">
+      <c r="A22" s="53"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="48" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="20" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19">
         <v>5</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35">
+      <c r="K23" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31">
+        <f>SUM(M25,M35)</f>
         <v>5</v>
       </c>
-      <c r="N23" s="35">
+      <c r="N23" s="31">
+        <f>SUM(N25,N35)</f>
         <v>10</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="73"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="36"/>
+      <c r="K24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="32"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56">
+      <c r="A25" s="52">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="23" t="str">
+      <c r="C25" s="64"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="21" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="27">
+        <f>SUM(M27,M29,M31,M33)</f>
+        <v>5</v>
+      </c>
+      <c r="N25" s="27">
+        <f>SUM(N27,N29,N31,N33)</f>
+        <v>4</v>
+      </c>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="24" t="str">
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="22" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="37"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="64" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="66" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="J27" s="8">
         <v>3</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31">
+      <c r="K27" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27">
+        <v>1</v>
+      </c>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="52" t="str">
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="48" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="58" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="64" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="66"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3276,230 +3398,264 @@
       <c r="J29" s="8">
         <v>5</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31">
+      <c r="K29" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27">
         <v>3</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="27">
         <v>2.4</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="52" t="str">
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="48" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="58" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="64" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="66" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="J31" s="8">
         <v>2</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31">
+      <c r="K31" s="9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27">
+        <v>1</v>
+      </c>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="52" t="str">
+      <c r="A32" s="53"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="48" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="64" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="66" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="62" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="J33" s="8">
         <v>2</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31">
+      <c r="K33" s="9">
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="57"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="52" t="str">
+      <c r="A34" s="53"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="48" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="37"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="56">
+      <c r="A35" s="52">
         <v>2</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="23" t="str">
+      <c r="C35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="21" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L35" s="29"/>
+      <c r="M35" s="27">
+        <f>SUM(M37,M39,M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="27">
+        <f>SUM(N37,N39,N41)</f>
+        <v>6</v>
+      </c>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="24" t="str">
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="22" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="37"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="64" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="66"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3510,56 +3666,62 @@
       <c r="J37" s="8">
         <v>5</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31">
+      <c r="K37" s="9">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27">
+        <v>2</v>
+      </c>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="52" t="str">
+      <c r="A38" s="53"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="48" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="37"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="58" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="66"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3570,56 +3732,62 @@
       <c r="J39" s="8">
         <v>5</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31">
+      <c r="K39" s="9">
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27">
+        <v>3.8</v>
+      </c>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="52" t="str">
+      <c r="A40" s="53"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="48" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="44"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="58" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="64" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="66"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3630,164 +3798,194 @@
       <c r="J41" s="8">
         <v>1</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31">
+      <c r="K41" s="9">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="57"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="52" t="str">
+      <c r="A42" s="53"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="48" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="44"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="20" t="s">
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20">
+      <c r="I43" s="19"/>
+      <c r="J43" s="19">
         <v>5</v>
       </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35">
-        <v>5</v>
-      </c>
-      <c r="O43" s="35">
+      <c r="K43" s="9">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31">
+        <f>SUM(N45,N51)</f>
+        <v>4</v>
+      </c>
+      <c r="O43" s="31">
+        <f t="shared" ref="O43:P43" si="2">SUM(O45,O51)</f>
         <v>15</v>
       </c>
-      <c r="P43" s="35">
+      <c r="P43" s="31">
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="73"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
+      <c r="K44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="56">
+      <c r="A45" s="52">
         <v>1</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="23" t="str">
+      <c r="C45" s="64"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="21" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L45" s="29"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27">
+        <f>SUM(N47,N49)</f>
+        <v>4</v>
+      </c>
+      <c r="O45" s="27">
+        <f t="shared" ref="O45:P45" si="3">SUM(O47,O49)</f>
+        <v>12.5</v>
+      </c>
+      <c r="P45" s="27">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="24" t="str">
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="22" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="37"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
-      <c r="B47" s="58" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="64" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="66"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -3798,290 +3996,332 @@
       <c r="J47" s="8">
         <v>5</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31">
-        <v>5</v>
-      </c>
-      <c r="O47" s="31">
+      <c r="K47" s="9">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27">
+        <v>4</v>
+      </c>
+      <c r="O47" s="27">
         <v>7.5</v>
       </c>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="52" t="str">
+      <c r="A48" s="53"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="48" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="37"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
-      <c r="B49" s="58" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="64" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="66"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J49" s="8">
         <v>5</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31">
+      <c r="K49" s="9">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27">
         <v>5</v>
       </c>
-      <c r="P49" s="31">
+      <c r="P49" s="27">
         <v>3.5</v>
       </c>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="52" t="str">
+      <c r="A50" s="53"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="48" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="37"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="56">
+      <c r="A51" s="52">
         <v>2</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="23" t="str">
+      <c r="C51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="21" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="9">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="L51" s="29"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27">
+        <f>SUM(O53,O55,O57)</f>
+        <v>2.5</v>
+      </c>
+      <c r="P51" s="27">
+        <f>SUM(P53,P55,P57)</f>
+        <v>4</v>
+      </c>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="24" t="str">
+      <c r="A52" s="53"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="22" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="37"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
-      <c r="B53" s="58" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="64" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="66"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I53" s="8"/>
+      <c r="I53" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J53" s="8">
         <v>5</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31">
+      <c r="K53" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="L53" s="29"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27">
         <v>1.5</v>
       </c>
-      <c r="P53" s="31">
+      <c r="P53" s="27">
         <v>2</v>
       </c>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="52" t="str">
+      <c r="A54" s="53"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="48" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="37"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
-      <c r="B55" s="58" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="64" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="66"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I55" s="8"/>
+      <c r="I55" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J55" s="8">
         <v>5</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31">
+      <c r="K55" s="9">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="L55" s="29"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27">
         <v>1</v>
       </c>
-      <c r="P55" s="31">
+      <c r="P55" s="27">
         <v>1.8</v>
       </c>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="52" t="str">
+      <c r="A56" s="53"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="48" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="37"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="56"/>
-      <c r="B57" s="58" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="66"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4092,506 +4332,587 @@
       <c r="J57" s="8">
         <v>1</v>
       </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31">
+      <c r="K57" s="9">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="52" t="str">
+      <c r="A58" s="53"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="48" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="44"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="39"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="20" t="s">
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20">
+      <c r="I59" s="19"/>
+      <c r="J59" s="19">
         <v>5</v>
       </c>
-      <c r="K59" s="21"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35">
-        <v>7.5</v>
-      </c>
-      <c r="Q59" s="35">
+      <c r="K59" s="9">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="118">
+        <f>SUM(P61,P69)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q59" s="118">
+        <f>SUM(Q61,Q69)</f>
         <v>10</v>
       </c>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="73"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
+      <c r="K60" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56">
+      <c r="A61" s="52">
         <v>1</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="23" t="str">
+      <c r="C61" s="64"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="21" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="9">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="L61" s="29"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27">
+        <f>SUM(P63,P65,P67)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q61" s="27">
+        <f>SUM(Q63,Q65,Q67)</f>
+        <v>5</v>
+      </c>
+      <c r="R61" s="27">
+        <f>SUM(R63,R65,R67)</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="27"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="24" t="str">
+      <c r="A62" s="53"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="22" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
       </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="37"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="58" t="s">
+      <c r="A63" s="52"/>
+      <c r="B63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="64" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="66"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I63" s="8"/>
+      <c r="I63" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J63" s="8">
         <v>5</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31">
+      <c r="K63" s="9">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="52" t="str">
+      <c r="A64" s="53"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="48" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="37"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
-      <c r="B65" s="58" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="64" t="s">
+      <c r="D65" s="57"/>
+      <c r="E65" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="66"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I65" s="8"/>
+      <c r="I65" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J65" s="8">
         <v>5</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31">
-        <v>5</v>
-      </c>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
+      <c r="K65" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L65" s="29"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="52" t="str">
+      <c r="A66" s="53"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="48" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="37"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56"/>
-      <c r="B67" s="58" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="64" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="66"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I67" s="8"/>
+      <c r="I67" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J67" s="8">
         <v>5</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31">
+      <c r="K67" s="9">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27">
+        <v>5</v>
+      </c>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="52" t="str">
+      <c r="A68" s="53"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="48" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="37"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="56">
+      <c r="A69" s="52">
         <v>2</v>
       </c>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="23" t="str">
+      <c r="C69" s="64"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="21" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L69" s="29"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27">
+        <f>SUM(P71,P73,P75)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="27">
+        <f>SUM(Q71,Q73,Q75)</f>
+        <v>5</v>
+      </c>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="24" t="str">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="22" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="37"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
-      <c r="B71" s="58" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="64" t="s">
+      <c r="D71" s="57"/>
+      <c r="E71" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="66" t="s">
+      <c r="F71" s="60"/>
+      <c r="G71" s="62" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I71" s="8"/>
+      <c r="I71" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J71" s="8">
         <v>5</v>
       </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31">
+      <c r="K71" s="9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27">
+        <v>3</v>
+      </c>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="52" t="str">
+      <c r="A72" s="53"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="48" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="37"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
-      <c r="B73" s="58" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="64" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="66"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I73" s="8"/>
+      <c r="I73" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J73" s="8">
         <v>5</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31">
+      <c r="K73" s="9">
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="52" t="str">
+      <c r="A74" s="53"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="48" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="37"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="56"/>
-      <c r="B75" s="58" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="64" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="66"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -4602,610 +4923,701 @@
       <c r="J75" s="8">
         <v>1</v>
       </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="31">
+      <c r="K75" s="9">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="57"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="52" t="str">
+      <c r="A76" s="53"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="48" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="39"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="20" t="s">
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20">
+      <c r="I77" s="19"/>
+      <c r="J77" s="19">
         <v>5</v>
       </c>
-      <c r="K77" s="21"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35">
+      <c r="K77" s="9">
+        <f t="shared" ref="K77:K112" si="4">SUM(L77:S77)</f>
+        <v>19</v>
+      </c>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31">
+        <f>Q79</f>
         <v>5</v>
       </c>
-      <c r="R77" s="35">
-        <v>15</v>
-      </c>
-      <c r="S77" s="35"/>
+      <c r="R77" s="31">
+        <f>R79</f>
+        <v>14</v>
+      </c>
+      <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="73"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
+      <c r="K78" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="56">
+      <c r="A79" s="52">
         <v>1</v>
       </c>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="68"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="23" t="str">
+      <c r="C79" s="64"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="21" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
       </c>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="9">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L79" s="29"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27">
+        <f>SUM(Q81,Q83)</f>
+        <v>5</v>
+      </c>
+      <c r="R79" s="27">
+        <f>SUM(R81,R83)</f>
+        <v>14</v>
+      </c>
+      <c r="S79" s="27"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="24" t="str">
+      <c r="A80" s="53"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="22" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="37"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="56"/>
-      <c r="B81" s="58" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="64" t="s">
+      <c r="D81" s="57"/>
+      <c r="E81" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="66"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I81" s="8"/>
+      <c r="I81" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J81" s="8">
         <v>5</v>
       </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31">
+      <c r="K81" s="9">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="L81" s="29"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27">
         <v>5</v>
       </c>
-      <c r="R81" s="31">
-        <v>7.5</v>
-      </c>
-      <c r="S81" s="31"/>
+      <c r="R81" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="S81" s="27"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="52" t="str">
+      <c r="A82" s="53"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="48" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="37"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="56"/>
-      <c r="B83" s="58" t="s">
+      <c r="A83" s="52"/>
+      <c r="B83" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="64" t="s">
+      <c r="D83" s="57"/>
+      <c r="E83" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="66"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I83" s="8"/>
+      <c r="I83" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J83" s="8">
         <v>5</v>
       </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="31">
+      <c r="K83" s="9">
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="S83" s="31"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="S83" s="27"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="57"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="52" t="str">
+      <c r="A84" s="53"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="48" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="37"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="20" t="s">
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20">
+      <c r="I85" s="19"/>
+      <c r="J85" s="19">
         <v>5</v>
       </c>
-      <c r="K85" s="21"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35">
+      <c r="K85" s="9">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31">
+        <f>SUM(S87,S93)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="77"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="73"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="69"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
+      <c r="K86" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="33"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="56">
+      <c r="A87" s="52">
         <v>1</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="68"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="23" t="str">
+      <c r="C87" s="64"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="21" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
       </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="31"/>
-      <c r="Q87" s="31"/>
-      <c r="R87" s="31"/>
-      <c r="S87" s="31"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L87" s="29"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27">
+        <f>SUM(S89,S91)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="62"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="24" t="str">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="22" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
       </c>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="37"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
-      <c r="B89" s="58" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="64" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="66"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I89" s="8"/>
+      <c r="I89" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J89" s="8">
         <v>5</v>
       </c>
-      <c r="K89" s="9"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
-      <c r="Q89" s="31"/>
-      <c r="R89" s="31"/>
-      <c r="S89" s="31">
+      <c r="K89" s="9">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="L89" s="29"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="52" t="str">
+      <c r="A90" s="53"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="48" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="32"/>
-      <c r="S90" s="32"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="37"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="28"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="56"/>
-      <c r="B91" s="58" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="67" t="s">
+      <c r="C91" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="64" t="s">
+      <c r="D91" s="57"/>
+      <c r="E91" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="66"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I91" s="8"/>
+      <c r="I91" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J91" s="8">
         <v>5</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="31"/>
-      <c r="S91" s="31">
+      <c r="K91" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="L91" s="29"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="52" t="str">
+      <c r="A92" s="53"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="48" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="32"/>
-      <c r="O92" s="32"/>
-      <c r="P92" s="32"/>
-      <c r="Q92" s="32"/>
-      <c r="R92" s="32"/>
-      <c r="S92" s="32"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="37"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="28"/>
+      <c r="R92" s="28"/>
+      <c r="S92" s="28"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="56">
+      <c r="A93" s="52">
         <v>2</v>
       </c>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="68"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="23" t="str">
+      <c r="C93" s="64"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="21" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
       </c>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31"/>
-      <c r="O93" s="31"/>
-      <c r="P93" s="31"/>
-      <c r="Q93" s="31"/>
-      <c r="R93" s="31"/>
-      <c r="S93" s="31"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L93" s="29"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27">
+        <f>SUM(S95,S97)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="24" t="str">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="22" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
       </c>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="32"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="37"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="56"/>
-      <c r="B95" s="58" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="64" t="s">
+      <c r="D95" s="57"/>
+      <c r="E95" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="64"/>
-      <c r="G95" s="66"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I95" s="8"/>
+      <c r="I95" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J95" s="8">
         <v>5</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="31"/>
-      <c r="P95" s="31"/>
-      <c r="Q95" s="31"/>
-      <c r="R95" s="31"/>
-      <c r="S95" s="31">
+      <c r="K95" s="9">
+        <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
+      <c r="L95" s="29"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="52" t="str">
+      <c r="A96" s="53"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="48" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="32"/>
-      <c r="P96" s="32"/>
-      <c r="Q96" s="32"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="32"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="37"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="28"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
+      <c r="R96" s="28"/>
+      <c r="S96" s="28"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="56"/>
-      <c r="B97" s="58" t="s">
+      <c r="A97" s="52"/>
+      <c r="B97" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="64" t="s">
+      <c r="D97" s="57"/>
+      <c r="E97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="64"/>
-      <c r="G97" s="66"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5216,386 +5628,441 @@
       <c r="J97" s="8">
         <v>1</v>
       </c>
-      <c r="K97" s="9"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="31"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="31">
+      <c r="K97" s="9">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
+      <c r="L97" s="29"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="57"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="52" t="str">
+      <c r="A98" s="53"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="48" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="44"/>
-      <c r="N98" s="44"/>
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
-      <c r="S98" s="44"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="39"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+      <c r="R98" s="40"/>
+      <c r="S98" s="40"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="74" t="s">
+      <c r="A99" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="20" t="s">
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20">
+      <c r="I99" s="19"/>
+      <c r="J99" s="19">
         <v>5</v>
       </c>
-      <c r="K99" s="21"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35">
+      <c r="K99" s="9">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="L99" s="31"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="31"/>
+      <c r="R99" s="31"/>
+      <c r="S99" s="31">
+        <f>SUM(S101,S107)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="77"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="73"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="69"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="37"/>
+      <c r="K100" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="56">
+      <c r="A101" s="52">
         <v>1</v>
       </c>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="68"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="23" t="str">
+      <c r="C101" s="64"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="21" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
       </c>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="31"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="31"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="9">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="L101" s="29"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="27"/>
+      <c r="Q101" s="27"/>
+      <c r="R101" s="27"/>
+      <c r="S101" s="27">
+        <f>SUM(S103,S105)</f>
+        <v>3.8</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="57"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="24" t="str">
+      <c r="A102" s="53"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="22" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
       </c>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="32"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="32"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="37"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="28"/>
+      <c r="P102" s="28"/>
+      <c r="Q102" s="28"/>
+      <c r="R102" s="28"/>
+      <c r="S102" s="28"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="56"/>
-      <c r="B103" s="58" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="64" t="s">
+      <c r="D103" s="57"/>
+      <c r="E103" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="66"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I103" s="8"/>
+      <c r="I103" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J103" s="8">
         <v>5</v>
       </c>
-      <c r="K103" s="9"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="31">
+      <c r="K103" s="9">
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
+      <c r="L103" s="29"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="27"/>
+      <c r="R103" s="27"/>
+      <c r="S103" s="27">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="57"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="52" t="str">
+      <c r="A104" s="53"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="48" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="32"/>
-      <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="32"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="37"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="28"/>
+      <c r="R104" s="28"/>
+      <c r="S104" s="28"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="56"/>
-      <c r="B105" s="58" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="60" t="s">
+      <c r="C105" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="61"/>
-      <c r="E105" s="64" t="s">
+      <c r="D105" s="57"/>
+      <c r="E105" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="66"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I105" s="8"/>
+      <c r="I105" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J105" s="8">
         <v>5</v>
       </c>
-      <c r="K105" s="9"/>
-      <c r="L105" s="33"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
-      <c r="Q105" s="31"/>
-      <c r="R105" s="31"/>
-      <c r="S105" s="31">
+      <c r="K105" s="9">
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
+      <c r="L105" s="29"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="27"/>
+      <c r="R105" s="27"/>
+      <c r="S105" s="27">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="57"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="52" t="str">
+      <c r="A106" s="53"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="48" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="32"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="37"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="28"/>
+      <c r="R106" s="28"/>
+      <c r="S106" s="28"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="56">
+      <c r="A107" s="52">
         <v>2</v>
       </c>
-      <c r="B107" s="60" t="s">
+      <c r="B107" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="68"/>
-      <c r="D107" s="61"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="23" t="str">
+      <c r="C107" s="64"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="21" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
       </c>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="31"/>
-      <c r="R107" s="31"/>
-      <c r="S107" s="31"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="L107" s="29"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27">
+        <f>SUM(S109,S111)</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="57"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="24" t="str">
+      <c r="A108" s="53"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="22" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
       </c>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="32"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="37"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+      <c r="R108" s="28"/>
+      <c r="S108" s="28"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="56"/>
-      <c r="B109" s="58" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="60" t="s">
+      <c r="C109" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="64" t="s">
+      <c r="D109" s="57"/>
+      <c r="E109" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="64"/>
-      <c r="G109" s="66"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I109" s="8"/>
+      <c r="I109" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J109" s="8">
         <v>5</v>
       </c>
-      <c r="K109" s="9"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="31"/>
-      <c r="O109" s="31"/>
-      <c r="P109" s="31"/>
-      <c r="Q109" s="31"/>
-      <c r="R109" s="31"/>
-      <c r="S109" s="31">
+      <c r="K109" s="9">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="L109" s="29"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="57"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="52" t="str">
+      <c r="A110" s="53"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="48" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="32"/>
-      <c r="R110" s="32"/>
-      <c r="S110" s="32"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="37"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="28"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="28"/>
+      <c r="R110" s="28"/>
+      <c r="S110" s="28"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="56"/>
-      <c r="B111" s="58" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="60" t="s">
+      <c r="C111" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="61"/>
-      <c r="E111" s="64" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="64"/>
-      <c r="G111" s="66"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -5606,50 +6073,56 @@
       <c r="J111" s="8">
         <v>1</v>
       </c>
-      <c r="K111" s="9"/>
-      <c r="L111" s="33"/>
-      <c r="M111" s="31"/>
-      <c r="N111" s="31"/>
-      <c r="O111" s="31"/>
-      <c r="P111" s="31"/>
-      <c r="Q111" s="31"/>
-      <c r="R111" s="31"/>
-      <c r="S111" s="31">
+      <c r="K111" s="9">
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
+      <c r="L111" s="29"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="27"/>
+      <c r="R111" s="27"/>
+      <c r="S111" s="27">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="57"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="52" t="str">
+      <c r="A112" s="53"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="48" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32"/>
-      <c r="R112" s="32"/>
-      <c r="S112" s="32"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="37"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="28"/>
+      <c r="O112" s="28"/>
+      <c r="P112" s="28"/>
+      <c r="Q112" s="28"/>
+      <c r="R112" s="28"/>
+      <c r="S112" s="28"/>
     </row>
     <row r="113" spans="12:19" x14ac:dyDescent="0.15">
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
-      <c r="N113" s="39"/>
-      <c r="O113" s="39"/>
-      <c r="Q113" s="39"/>
-      <c r="R113" s="39"/>
-      <c r="S113" s="39"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="35"/>
+      <c r="O113" s="35"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K112" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -5975,7 +6448,7 @@
     <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L9:S18 L25:S36 L87:S98 L101:S112">
+  <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L25:S36">
     <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -6070,12 +6543,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6259,16 +6741,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6277,7 +6758,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6293,12 +6774,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158998C4-2FA6-4101-8208-7E7D5B22F901}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{234EDC92-ABB4-4F62-B6B2-9E282B550C89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,8 +757,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1028,19 +1034,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -1461,11 +1454,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,12 +1520,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,16 +1535,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,16 +1578,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,57 +1596,57 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1647,13 +1659,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,19 +1680,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,58 +1704,61 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1752,68 +1767,71 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2423,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2445,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="108">
+      <c r="L1" s="105">
         <v>43984</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108">
+      <c r="M1" s="106"/>
+      <c r="N1" s="105">
         <v>43985</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="108">
+      <c r="O1" s="106"/>
+      <c r="P1" s="105">
         <v>43986</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="108">
+      <c r="Q1" s="106"/>
+      <c r="R1" s="105">
         <v>43987</v>
       </c>
-      <c r="S1" s="109"/>
+      <c r="S1" s="106"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="112" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="108"/>
+      <c r="N2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="110" t="s">
+      <c r="Q2" s="108"/>
+      <c r="R2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="111"/>
+      <c r="S2" s="108"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="116" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="115"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114" t="s">
+      <c r="O3" s="112"/>
+      <c r="P3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="117" t="s">
+      <c r="Q3" s="112"/>
+      <c r="R3" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="117"/>
+      <c r="S3" s="114"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="89"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2585,87 +2603,87 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="15" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="23">
-        <f>SUM(L7,L23,L43,L59,L77,L85,L99)</f>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="20">
         <v>14</v>
       </c>
-      <c r="M5" s="23">
-        <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
+      <c r="M5" s="20">
         <v>15</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
+        <f t="shared" ref="N5:S5" si="0">SUM(N7,N23,N43,N59,N77,N85,N99)</f>
+        <v>14</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O5" s="23">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P5" s="23">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R5" s="23">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39">
         <v>14</v>
       </c>
-      <c r="S5" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="105"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2673,119 +2691,135 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="36">
-        <f>SUM(L9,L15)</f>
+      <c r="K7" s="115">
+        <f>SUM(L7:S7)</f>
+        <v>24</v>
+      </c>
+      <c r="L7" s="33">
         <v>14</v>
       </c>
-      <c r="M7" s="36">
-        <f>SUM(M9,M15)</f>
+      <c r="M7" s="33">
         <v>10</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="106"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+      <c r="K8" s="116">
+        <f t="shared" ref="K8:K10" si="1">SUM(L8:S8)</f>
+        <v>20.9</v>
+      </c>
+      <c r="L8" s="31">
+        <v>14</v>
+      </c>
+      <c r="M8" s="22">
+        <v>6.9</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+      <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="21" t="str">
+      <c r="C9" s="61"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="26">
-        <f>SUM(L11,L13)</f>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="117">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
+      </c>
+      <c r="L9" s="23">
         <v>13.5</v>
       </c>
-      <c r="M9" s="26">
-        <f>SUM(M11,M13)</f>
-        <v>6.8</v>
-      </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="M9" s="23">
+        <v>10</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="22" t="str">
+      <c r="A10" s="50"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="116">
+        <f t="shared" si="1"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L10" s="34">
+        <v>13.5</v>
+      </c>
+      <c r="M10" s="25">
+        <v>6.9</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2800,66 +2834,66 @@
         <f>SUM(L11:S11)</f>
         <v>10</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="26">
         <v>10</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="48" t="str">
+      <c r="A12" s="50"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="44">
         <v>5</v>
       </c>
       <c r="K12" s="9">
         <f>SUM(L12:S12)</f>
         <v>10</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="34">
         <v>10</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="54"/>
+      <c r="E13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2871,127 +2905,135 @@
         <v>5</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" ref="K13:K76" si="1">SUM(L13:S13)</f>
-        <v>10.3</v>
-      </c>
-      <c r="L13" s="29">
+        <f t="shared" ref="K13:K76" si="2">SUM(L13:S13)</f>
+        <v>7.1</v>
+      </c>
+      <c r="L13" s="26">
         <v>3.5</v>
       </c>
-      <c r="M13" s="27">
-        <v>6.8</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
+      <c r="M13" s="24">
+        <v>3.6</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="48" t="str">
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="M14" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="A15" s="49">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="21" t="str">
+      <c r="C15" s="61"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="26">
         <f>SUM(L17,L19,L21)</f>
         <v>0.5</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="26">
         <f>SUM(M17,M19,M21)</f>
         <v>3.2</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="22" t="str">
+      <c r="A16" s="50"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="54"/>
+      <c r="E17" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3003,63 +3045,67 @@
         <v>5</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="23">
         <v>0.5</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="24">
         <v>2</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="48" t="str">
+      <c r="A18" s="50"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="25">
+        <v>2</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3071,63 +3117,64 @@
         <v>5</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="26">
         <v>0</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="24">
         <v>1</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="48" t="str">
+      <c r="A20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
       <c r="K20" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="25">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="54"/>
+      <c r="E21" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3139,187 +3186,193 @@
         <v>1</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="27">
+      <c r="L21" s="26"/>
+      <c r="M21" s="24">
         <v>0.2</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="48" t="str">
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
       <c r="K22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="34"/>
+      <c r="M22" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="19" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17">
         <v>5</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31">
+      <c r="L23" s="27"/>
+      <c r="M23" s="28">
         <f>SUM(M25,M35)</f>
         <v>5</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="28">
         <f>SUM(N25,N35)</f>
         <v>10</v>
       </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="32"/>
+        <f t="shared" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="49">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="21" t="str">
+      <c r="C25" s="61"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="27">
+      <c r="L25" s="26"/>
+      <c r="M25" s="24">
         <f>SUM(M27,M29,M31,M33)</f>
         <v>5</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="24">
         <f>SUM(N27,N29,N31,N33)</f>
         <v>4</v>
       </c>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="22" t="str">
+      <c r="A26" s="50"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
+        <f t="shared" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="25">
+        <v>8.1</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="62" t="s">
+      <c r="F27" s="57"/>
+      <c r="G27" s="59" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3333,61 +3386,63 @@
         <v>3</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27">
+      <c r="L27" s="23"/>
+      <c r="M27" s="24">
         <v>1</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="48" t="str">
+      <c r="A28" s="50"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41">
+        <v>1</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="54"/>
+      <c r="E29" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3399,63 +3454,63 @@
         <v>5</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27">
+      <c r="L29" s="23"/>
+      <c r="M29" s="24">
         <v>3</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="24">
         <v>2.4</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="48" t="str">
+      <c r="A30" s="50"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="59" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3469,61 +3524,63 @@
         <v>2</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27">
+      <c r="L31" s="23"/>
+      <c r="M31" s="24">
         <v>1</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="48" t="str">
+      <c r="A32" s="50"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
       <c r="K32" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41">
+        <v>1</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="62" t="s">
+      <c r="F33" s="57"/>
+      <c r="G33" s="59" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3537,125 +3594,125 @@
         <v>2</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27">
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24">
         <v>1.6</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="48" t="str">
+      <c r="A34" s="50"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
       <c r="K34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
+      <c r="A35" s="49">
         <v>2</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="21" t="str">
+      <c r="C35" s="61"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="27">
+      <c r="L35" s="26"/>
+      <c r="M35" s="24">
         <f>SUM(M37,M39,M41)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="24">
         <f>SUM(N37,N39,N41)</f>
         <v>6</v>
       </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="22" t="str">
+      <c r="A36" s="50"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3667,61 +3724,61 @@
         <v>5</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27">
+      <c r="L37" s="26"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24">
         <v>2</v>
       </c>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="48" t="str">
+      <c r="A38" s="50"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L38" s="37"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="54"/>
+      <c r="E39" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3733,61 +3790,61 @@
         <v>5</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27">
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24">
         <v>3.8</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="48" t="str">
+      <c r="A40" s="50"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="44"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="49"/>
+      <c r="B41" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="54"/>
+      <c r="E41" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="62"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3799,193 +3856,193 @@
         <v>1</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L41" s="29"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27">
+      <c r="L41" s="26"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24">
         <v>0.2</v>
       </c>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="48" t="str">
+      <c r="A42" s="50"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="44"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="19" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19">
+      <c r="I43" s="17"/>
+      <c r="J43" s="17">
         <v>5</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31">
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28">
         <f>SUM(N45,N51)</f>
         <v>4</v>
       </c>
-      <c r="O43" s="31">
-        <f t="shared" ref="O43:P43" si="2">SUM(O45,O51)</f>
+      <c r="O43" s="28">
+        <f t="shared" ref="O43:P43" si="3">SUM(O45,O51)</f>
         <v>15</v>
       </c>
-      <c r="P43" s="31">
-        <f t="shared" si="2"/>
+      <c r="P43" s="28">
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="69"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="66"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
+      <c r="A45" s="49">
         <v>1</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="21" t="str">
+      <c r="C45" s="61"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L45" s="29"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27">
+      <c r="L45" s="26"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24">
         <f>SUM(N47,N49)</f>
         <v>4</v>
       </c>
-      <c r="O45" s="27">
-        <f t="shared" ref="O45:P45" si="3">SUM(O47,O49)</f>
+      <c r="O45" s="24">
+        <f t="shared" ref="O45:P45" si="4">SUM(O47,O49)</f>
         <v>12.5</v>
       </c>
-      <c r="P45" s="27">
-        <f t="shared" si="3"/>
+      <c r="P45" s="24">
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="22" t="str">
+      <c r="A46" s="50"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="37"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="54"/>
+      <c r="E47" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -3997,63 +4054,63 @@
         <v>5</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27">
+      <c r="L47" s="26"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24">
         <v>4</v>
       </c>
-      <c r="O47" s="27">
+      <c r="O47" s="24">
         <v>7.5</v>
       </c>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="48" t="str">
+      <c r="A48" s="50"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L48" s="37"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="54"/>
+      <c r="E49" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4065,127 +4122,127 @@
         <v>5</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27">
+      <c r="L49" s="26"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24">
         <v>5</v>
       </c>
-      <c r="P49" s="27">
+      <c r="P49" s="24">
         <v>3.5</v>
       </c>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="53"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="48" t="str">
+      <c r="A50" s="50"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
       <c r="K50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="37"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
+      <c r="A51" s="49">
         <v>2</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="21" t="str">
+      <c r="C51" s="61"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
       </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="L51" s="29"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27">
+      <c r="L51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24">
         <f>SUM(O53,O55,O57)</f>
         <v>2.5</v>
       </c>
-      <c r="P51" s="27">
+      <c r="P51" s="24">
         <f>SUM(P53,P55,P57)</f>
         <v>4</v>
       </c>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="22" t="str">
+      <c r="A52" s="50"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52" s="37"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="54" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="54"/>
+      <c r="E53" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4197,63 +4254,63 @@
         <v>5</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="L53" s="29"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27">
+      <c r="L53" s="26"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24">
         <v>1.5</v>
       </c>
-      <c r="P53" s="27">
+      <c r="P53" s="24">
         <v>2</v>
       </c>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="48" t="str">
+      <c r="A54" s="50"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
       <c r="K54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L54" s="37"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="49"/>
+      <c r="B55" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="54"/>
+      <c r="E55" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4265,63 +4322,63 @@
         <v>5</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="L55" s="29"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27">
+      <c r="L55" s="26"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24">
         <v>1</v>
       </c>
-      <c r="P55" s="27">
+      <c r="P55" s="24">
         <v>1.8</v>
       </c>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="48" t="str">
+      <c r="A56" s="50"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L56" s="37"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="54" t="s">
+      <c r="A57" s="49"/>
+      <c r="B57" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="54"/>
+      <c r="E57" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="59"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4333,190 +4390,190 @@
         <v>1</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L57" s="29"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27">
+      <c r="L57" s="26"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24">
         <v>0.2</v>
       </c>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="48" t="str">
+      <c r="A58" s="50"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
       <c r="K58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L58" s="39"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="19" t="s">
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19">
+      <c r="I59" s="17"/>
+      <c r="J59" s="17">
         <v>5</v>
       </c>
       <c r="K59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="118">
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="46">
         <f>SUM(P61,P69)</f>
         <v>6.5</v>
       </c>
-      <c r="Q59" s="118">
+      <c r="Q59" s="46">
         <f>SUM(Q61,Q69)</f>
         <v>10</v>
       </c>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="69"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="52">
+      <c r="A61" s="49">
         <v>1</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="21" t="str">
+      <c r="C61" s="61"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
       </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
-      <c r="L61" s="29"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27">
+      <c r="L61" s="26"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24">
         <f>SUM(P63,P65,P67)</f>
         <v>6.5</v>
       </c>
-      <c r="Q61" s="27">
+      <c r="Q61" s="24">
         <f>SUM(Q63,Q65,Q67)</f>
         <v>5</v>
       </c>
-      <c r="R61" s="27">
+      <c r="R61" s="24">
         <f>SUM(R63,R65,R67)</f>
         <v>0</v>
       </c>
-      <c r="S61" s="27"/>
+      <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="22" t="str">
+      <c r="A62" s="50"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
       </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L62" s="37"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="49"/>
+      <c r="B63" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="54"/>
+      <c r="E63" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="59"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4528,61 +4585,61 @@
         <v>5</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="L63" s="29"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27">
+      <c r="L63" s="26"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24">
         <v>2.5</v>
       </c>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="48" t="str">
+      <c r="A64" s="50"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
       <c r="K64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L64" s="37"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="54"/>
+      <c r="E65" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4594,61 +4651,61 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L65" s="29"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27">
+      <c r="L65" s="26"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24">
         <v>4</v>
       </c>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="48" t="str">
+      <c r="A66" s="50"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L66" s="37"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="49"/>
+      <c r="B67" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="54"/>
+      <c r="E67" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4660,125 +4717,125 @@
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L67" s="29"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27">
+      <c r="L67" s="26"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24">
         <v>5</v>
       </c>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="53"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="48" t="str">
+      <c r="A68" s="50"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
       <c r="K68" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L68" s="37"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52">
+      <c r="A69" s="49">
         <v>2</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="21" t="str">
+      <c r="C69" s="61"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
       </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L69" s="29"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27">
+      <c r="L69" s="26"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24">
         <f>SUM(P71,P73,P75)</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="27">
+      <c r="Q69" s="24">
         <f>SUM(Q71,Q73,Q75)</f>
         <v>5</v>
       </c>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="22" t="str">
+      <c r="A70" s="50"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
       </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
       <c r="K70" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L70" s="37"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="28"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="54" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="54"/>
+      <c r="E71" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="57"/>
+      <c r="G71" s="59" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4792,61 +4849,61 @@
         <v>5</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L71" s="29"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27">
+      <c r="L71" s="26"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24">
         <v>3</v>
       </c>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="48" t="str">
+      <c r="A72" s="50"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
       <c r="K72" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L72" s="37"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="54"/>
+      <c r="E73" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4858,61 +4915,61 @@
         <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="L73" s="29"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27">
+      <c r="L73" s="26"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24">
         <v>1.8</v>
       </c>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="48" t="str">
+      <c r="A74" s="50"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
       <c r="K74" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L74" s="37"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="49"/>
+      <c r="B75" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="54"/>
+      <c r="E75" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -4924,187 +4981,187 @@
         <v>1</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L75" s="29"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27">
+      <c r="L75" s="26"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24">
         <v>0.2</v>
       </c>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="53"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="48" t="str">
+      <c r="A76" s="50"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
       <c r="K76" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L76" s="39"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="19" t="s">
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19">
+      <c r="I77" s="17"/>
+      <c r="J77" s="17">
         <v>5</v>
       </c>
       <c r="K77" s="9">
-        <f t="shared" ref="K77:K112" si="4">SUM(L77:S77)</f>
+        <f t="shared" ref="K77:K112" si="5">SUM(L77:S77)</f>
         <v>19</v>
       </c>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31">
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28">
         <f>Q79</f>
         <v>5</v>
       </c>
-      <c r="R77" s="31">
+      <c r="R77" s="28">
         <f>R79</f>
         <v>14</v>
       </c>
-      <c r="S77" s="31"/>
+      <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="66"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
+      <c r="A79" s="49">
         <v>1</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="21" t="str">
+      <c r="C79" s="61"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
       </c>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
       <c r="K79" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="L79" s="29"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27">
+      <c r="L79" s="26"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24">
         <f>SUM(Q81,Q83)</f>
         <v>5</v>
       </c>
-      <c r="R79" s="27">
+      <c r="R79" s="24">
         <f>SUM(R81,R83)</f>
         <v>14</v>
       </c>
-      <c r="S79" s="27"/>
+      <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="53"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="22" t="str">
+      <c r="A80" s="50"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
       </c>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
       <c r="K80" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L80" s="37"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="49"/>
+      <c r="B81" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="54"/>
+      <c r="E81" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="59"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5116,63 +5173,63 @@
         <v>5</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
-      <c r="L81" s="29"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27">
+      <c r="L81" s="26"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24">
         <v>5</v>
       </c>
-      <c r="R81" s="27">
+      <c r="R81" s="24">
         <v>6.5</v>
       </c>
-      <c r="S81" s="27"/>
+      <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="53"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="48" t="str">
+      <c r="A82" s="50"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
       <c r="K82" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L82" s="37"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="A83" s="49"/>
+      <c r="B83" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="54"/>
+      <c r="E83" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5184,181 +5241,181 @@
         <v>5</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="L83" s="29"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27">
+      <c r="L83" s="26"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24">
         <v>7.5</v>
       </c>
-      <c r="S83" s="27"/>
+      <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="53"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="48" t="str">
+      <c r="A84" s="50"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
       <c r="K84" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L84" s="37"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="19" t="s">
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19">
+      <c r="I85" s="17"/>
+      <c r="J85" s="17">
         <v>5</v>
       </c>
       <c r="K85" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31">
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28">
         <f>SUM(S87,S93)</f>
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="66"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L86" s="33"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52">
+      <c r="A87" s="49">
         <v>1</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="21" t="str">
+      <c r="C87" s="61"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
       </c>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
       <c r="K87" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L87" s="29"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27">
+      <c r="L87" s="26"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24">
         <f>SUM(S89,S91)</f>
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="22" t="str">
+      <c r="A88" s="50"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
       </c>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
       <c r="K88" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L88" s="37"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="49"/>
+      <c r="B89" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="54"/>
+      <c r="E89" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="59"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5370,61 +5427,61 @@
         <v>5</v>
       </c>
       <c r="K89" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L89" s="29"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27">
+      <c r="L89" s="26"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="53"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="48" t="str">
+      <c r="A90" s="50"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
       <c r="K90" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L90" s="37"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="49"/>
+      <c r="B91" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="60" t="s">
+      <c r="D91" s="54"/>
+      <c r="E91" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="62"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="59"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5436,122 +5493,122 @@
         <v>5</v>
       </c>
       <c r="K91" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L91" s="29"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27">
+      <c r="L91" s="26"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="53"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="48" t="str">
+      <c r="A92" s="50"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
       <c r="K92" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L92" s="37"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
+      <c r="A93" s="49">
         <v>2</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="21" t="str">
+      <c r="C93" s="61"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
       </c>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
       <c r="K93" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L93" s="29"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27">
+      <c r="L93" s="26"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24">
         <f>SUM(S95,S97)</f>
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="22" t="str">
+      <c r="A94" s="50"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
       </c>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
       <c r="K94" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L94" s="37"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="28"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="54" t="s">
+      <c r="A95" s="49"/>
+      <c r="B95" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="54"/>
+      <c r="E95" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="59"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5563,61 +5620,61 @@
         <v>5</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="L95" s="29"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27">
+      <c r="L95" s="26"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24">
         <v>3.8</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="53"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="48" t="str">
+      <c r="A96" s="50"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
       <c r="K96" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L96" s="37"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="28"/>
-      <c r="S96" s="28"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="49"/>
+      <c r="B97" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="60" t="s">
+      <c r="D97" s="54"/>
+      <c r="E97" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="62"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="59"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5629,181 +5686,181 @@
         <v>1</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="L97" s="29"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="27"/>
-      <c r="Q97" s="27"/>
-      <c r="R97" s="27"/>
-      <c r="S97" s="27">
+      <c r="L97" s="26"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24">
         <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="53"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="48" t="str">
+      <c r="A98" s="50"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
       <c r="K98" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L98" s="39"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="40"/>
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40"/>
-      <c r="S98" s="40"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="19" t="s">
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19">
+      <c r="I99" s="17"/>
+      <c r="J99" s="17">
         <v>5</v>
       </c>
       <c r="K99" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
-      <c r="Q99" s="31"/>
-      <c r="R99" s="31"/>
-      <c r="S99" s="31">
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28">
         <f>SUM(S101,S107)</f>
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="66"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33"/>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="33"/>
-      <c r="S100" s="33"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="52">
+      <c r="A101" s="49">
         <v>1</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="21" t="str">
+      <c r="C101" s="61"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
       </c>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
       <c r="K101" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="L101" s="29"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="27"/>
-      <c r="P101" s="27"/>
-      <c r="Q101" s="27"/>
-      <c r="R101" s="27"/>
-      <c r="S101" s="27">
+      <c r="L101" s="26"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24">
         <f>SUM(S103,S105)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="53"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="22" t="str">
+      <c r="A102" s="50"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
       </c>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
       <c r="K102" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L102" s="37"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="54" t="s">
+      <c r="A103" s="49"/>
+      <c r="B103" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="57"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="54"/>
+      <c r="E103" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="59"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5815,61 +5872,61 @@
         <v>5</v>
       </c>
       <c r="K103" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="L103" s="29"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27">
+      <c r="L103" s="26"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24">
         <v>2.5</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="53"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="48" t="str">
+      <c r="A104" s="50"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
       <c r="K104" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L104" s="37"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="28"/>
-      <c r="O104" s="28"/>
-      <c r="P104" s="28"/>
-      <c r="Q104" s="28"/>
-      <c r="R104" s="28"/>
-      <c r="S104" s="28"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="54" t="s">
+      <c r="A105" s="49"/>
+      <c r="B105" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="60" t="s">
+      <c r="D105" s="54"/>
+      <c r="E105" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="59"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5881,122 +5938,122 @@
         <v>5</v>
       </c>
       <c r="K105" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
-      <c r="L105" s="29"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
-      <c r="Q105" s="27"/>
-      <c r="R105" s="27"/>
-      <c r="S105" s="27">
+      <c r="L105" s="26"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24">
         <v>1.3</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="53"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="48" t="str">
+      <c r="A106" s="50"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
       <c r="K106" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L106" s="37"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
-      <c r="Q106" s="28"/>
-      <c r="R106" s="28"/>
-      <c r="S106" s="28"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
+      <c r="A107" s="49">
         <v>2</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="64"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="21" t="str">
+      <c r="C107" s="61"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
       </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
       <c r="K107" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="L107" s="29"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="27"/>
-      <c r="R107" s="27"/>
-      <c r="S107" s="27">
+      <c r="L107" s="26"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24">
         <f>SUM(S109,S111)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="53"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="22" t="str">
+      <c r="A108" s="50"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
       </c>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
       <c r="K108" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L108" s="37"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28"/>
-      <c r="S108" s="28"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="49"/>
+      <c r="B109" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="54"/>
+      <c r="E109" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="59"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6008,61 +6065,61 @@
         <v>5</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L109" s="29"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="27">
+      <c r="L109" s="26"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="53"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="48" t="str">
+      <c r="A110" s="50"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
       <c r="K110" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L110" s="37"/>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="28"/>
-      <c r="R110" s="28"/>
-      <c r="S110" s="28"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="49"/>
+      <c r="B111" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="60" t="s">
+      <c r="D111" s="54"/>
+      <c r="E111" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="62"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="59"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6074,55 +6131,55 @@
         <v>1</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="L111" s="29"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="27"/>
-      <c r="Q111" s="27"/>
-      <c r="R111" s="27"/>
-      <c r="S111" s="27">
+      <c r="L111" s="26"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24">
         <v>0.2</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="48" t="str">
+      <c r="A112" s="50"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
       <c r="K112" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L112" s="37"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="28"/>
-      <c r="O112" s="28"/>
-      <c r="P112" s="28"/>
-      <c r="Q112" s="28"/>
-      <c r="R112" s="28"/>
-      <c r="S112" s="28"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
     </row>
     <row r="113" spans="12:19" x14ac:dyDescent="0.15">
-      <c r="L113" s="35"/>
-      <c r="M113" s="35"/>
-      <c r="N113" s="35"/>
-      <c r="O113" s="35"/>
-      <c r="Q113" s="35"/>
-      <c r="R113" s="35"/>
-      <c r="S113" s="35"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K112" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -6448,7 +6505,7 @@
     <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L25:S36">
+  <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
     <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -6752,8 +6809,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234EDC92-ABB4-4F62-B6B2-9E282B550C89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94385C8D-C223-4054-BA2C-27071594EEAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -2444,7 +2444,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2720,16 +2720,18 @@
         <v>20</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>5</v>
+      </c>
       <c r="K8" s="116">
         <f t="shared" ref="K8:K10" si="1">SUM(L8:S8)</f>
-        <v>20.9</v>
+        <v>19.5</v>
       </c>
       <c r="L8" s="31">
         <v>14</v>
       </c>
       <c r="M8" s="22">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -2758,13 +2760,13 @@
       <c r="J9" s="18"/>
       <c r="K9" s="117">
         <f t="shared" si="1"/>
-        <v>23.5</v>
+        <v>20.3</v>
       </c>
       <c r="L9" s="23">
         <v>13.5</v>
       </c>
       <c r="M9" s="23">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
@@ -2789,13 +2791,13 @@
       <c r="J10" s="19"/>
       <c r="K10" s="116">
         <f t="shared" si="1"/>
-        <v>20.399999999999999</v>
+        <v>16</v>
       </c>
       <c r="L10" s="34">
         <v>13.5</v>
       </c>
       <c r="M10" s="25">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -2906,13 +2908,13 @@
       </c>
       <c r="K13" s="9">
         <f t="shared" ref="K13:K76" si="2">SUM(L13:S13)</f>
-        <v>7.1</v>
+        <v>10.3</v>
       </c>
       <c r="L13" s="26">
         <v>3.5</v>
       </c>
       <c r="M13" s="24">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
@@ -2933,8 +2935,12 @@
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
+      <c r="I14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="44">
+        <v>5</v>
+      </c>
       <c r="K14" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3005,13 +3011,13 @@
       <c r="J16" s="19"/>
       <c r="K16" s="9">
         <f t="shared" si="2"/>
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="L16" s="26">
         <v>0.5</v>
       </c>
       <c r="M16" s="25">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -3073,8 +3079,12 @@
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="I18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
       <c r="K18" s="9">
         <f t="shared" si="2"/>
         <v>2.5</v>
@@ -3145,8 +3155,12 @@
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="I20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="8">
+        <v>5</v>
+      </c>
       <c r="K20" s="9">
         <v>0</v>
       </c>
@@ -3212,15 +3226,19 @@
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="I22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
       <c r="K22" s="9">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="25">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -3252,7 +3270,6 @@
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="28">
-        <f>SUM(M25,M35)</f>
         <v>5</v>
       </c>
       <c r="N23" s="28">
@@ -3280,11 +3297,11 @@
       <c r="J24" s="7"/>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="29">
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
@@ -3317,7 +3334,6 @@
       </c>
       <c r="L25" s="26"/>
       <c r="M25" s="24">
-        <f>SUM(M27,M29,M31,M33)</f>
         <v>5</v>
       </c>
       <c r="N25" s="24">
@@ -3346,11 +3362,11 @@
       <c r="J26" s="19"/>
       <c r="K26" s="9">
         <f t="shared" si="2"/>
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="25">
-        <v>8.1</v>
+        <v>9.5</v>
       </c>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
@@ -3412,8 +3428,12 @@
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
+      <c r="I28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="8">
+        <v>3</v>
+      </c>
       <c r="K28" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3482,14 +3502,20 @@
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
+      <c r="I30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
       <c r="K30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
+      <c r="M30" s="41">
+        <v>5</v>
+      </c>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
@@ -3550,15 +3576,19 @@
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
+      <c r="I32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2</v>
+      </c>
       <c r="K32" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L32" s="40"/>
       <c r="M32" s="41">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
@@ -6809,15 +6839,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94385C8D-C223-4054-BA2C-27071594EEAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B87ED-FA73-4103-810D-1B680C21BCBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2666,7 +2666,9 @@
       <c r="L6" s="39">
         <v>14</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39">
+        <v>15</v>
+      </c>
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
@@ -3294,7 +3296,9 @@
         <v>20</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="17">
+        <v>5</v>
+      </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
         <v>9.5</v>

--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B87ED-FA73-4103-810D-1B680C21BCBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E003145-92AA-4F87-8EF1-9B4D6901B58A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="16155" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -642,12 +642,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>川辺、大石</t>
+    <t>大石、川辺</t>
     <rPh sb="0" eb="2">
+      <t>オオイシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>カワベ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オオイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1620,12 +1620,57 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1635,203 +1680,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8:N9"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="105">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="105">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="105">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="105">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="106"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="109" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="107" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="108"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="91"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="111" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="111" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="114" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="114"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="86"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="81"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2677,15 +2677,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="102"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="47">
         <f>SUM(L7:S7)</f>
         <v>24</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="D8" s="72"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
-      <c r="G8" s="103"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="116">
+      <c r="K8" s="48">
         <f t="shared" ref="K8:K10" si="1">SUM(L8:S8)</f>
         <v>19.5</v>
       </c>
@@ -2743,24 +2743,24 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="47"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="117">
+      <c r="K9" s="49">
         <f t="shared" si="1"/>
         <v>20.3</v>
       </c>
@@ -2778,20 +2778,20 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="62"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="116">
+      <c r="K10" s="48">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2809,21 +2809,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="57" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2850,13 +2850,13 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="52"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2883,21 +2883,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="57" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2926,13 +2926,13 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2961,17 +2961,17 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49">
+      <c r="A15" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2998,13 +2998,13 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="62"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3029,19 +3029,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3070,13 +3070,13 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="52"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3105,19 +3105,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="57" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="59"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3146,13 +3146,13 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="52"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3178,19 +3178,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="57" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="59"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3217,13 +3217,13 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="52"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3258,7 +3258,7 @@
       <c r="D23" s="69"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
-      <c r="G23" s="65"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="D24" s="72"/>
       <c r="E24" s="74"/>
       <c r="F24" s="74"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3301,13 +3301,16 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>23.5</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="29">
         <v>9.5</v>
       </c>
-      <c r="N24" s="29"/>
+      <c r="N24" s="29">
+        <f>SUM(N26,N36)</f>
+        <v>14</v>
+      </c>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
@@ -3315,17 +3318,17 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49">
+      <c r="A25" s="64">
         <v>1</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="47"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3351,13 +3354,13 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="62"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3366,13 +3369,16 @@
       <c r="J26" s="19"/>
       <c r="K26" s="9">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>23.5</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="25">
         <v>9.5</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="25">
+        <f>SUM(N28,N30,N32,N34)</f>
+        <v>14</v>
+      </c>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
@@ -3380,19 +3386,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="57" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="59" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="54" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3421,13 +3427,13 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="52"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3454,19 +3460,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="57" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="59"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3495,13 +3501,13 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="52"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3514,13 +3520,15 @@
       </c>
       <c r="K30" s="9">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L30" s="40"/>
       <c r="M30" s="41">
         <v>5</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="25">
+        <v>11</v>
+      </c>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
@@ -3528,19 +3536,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="49"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="57" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3569,13 +3577,13 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="52"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3602,19 +3610,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="57" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="59" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="54" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3643,26 +3651,32 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="52"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
+      <c r="I34" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="44">
+        <v>2</v>
+      </c>
       <c r="K34" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
+      <c r="N34" s="25">
+        <v>3</v>
+      </c>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
@@ -3670,17 +3684,17 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49">
+      <c r="A35" s="64">
         <v>2</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="47"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3707,13 +3721,13 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="62"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="48"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3726,7 +3740,10 @@
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
+      <c r="N36" s="25">
+        <f>SUM(N38,N40,N42)</f>
+        <v>0</v>
+      </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
@@ -3734,19 +3751,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="49"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="57" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="59"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3773,13 +3790,13 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="50"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="52"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3800,19 +3817,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="57" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="59"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3839,13 +3856,13 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="52"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3866,19 +3883,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="49"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="57" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="59"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3905,13 +3922,13 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="52"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3940,7 +3957,7 @@
       <c r="D43" s="69"/>
       <c r="E43" s="73"/>
       <c r="F43" s="73"/>
-      <c r="G43" s="65"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -3977,7 +3994,7 @@
       <c r="D44" s="72"/>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
-      <c r="G44" s="66"/>
+      <c r="G44" s="112"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3997,17 +4014,17 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="49">
+      <c r="A45" s="64">
         <v>1</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="47"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4037,13 +4054,13 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="62"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="48"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4064,19 +4081,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="49"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4105,13 +4122,13 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="50"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="52"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4132,19 +4149,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="49"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="57" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="59"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4173,13 +4190,13 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="52"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4200,17 +4217,17 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="49">
+      <c r="A51" s="64">
         <v>2</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="47"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4237,13 +4254,13 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="50"/>
-      <c r="B52" s="55"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="62"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="48"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4264,19 +4281,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="49"/>
-      <c r="B53" s="51" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="57" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="59"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4305,13 +4322,13 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="50"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="52"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4332,19 +4349,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="49"/>
-      <c r="B55" s="51" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="57" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="59"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4373,13 +4390,13 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="50"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="52"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4400,19 +4417,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="49"/>
-      <c r="B57" s="51" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="57" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="59"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4439,13 +4456,13 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="50"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="52"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4474,7 +4491,7 @@
       <c r="D59" s="69"/>
       <c r="E59" s="73"/>
       <c r="F59" s="73"/>
-      <c r="G59" s="65"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4508,7 +4525,7 @@
       <c r="D60" s="72"/>
       <c r="E60" s="74"/>
       <c r="F60" s="74"/>
-      <c r="G60" s="66"/>
+      <c r="G60" s="112"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4528,17 +4545,17 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="49">
+      <c r="A61" s="64">
         <v>1</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="47"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4568,13 +4585,13 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="50"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="62"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="48"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4595,19 +4612,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="49"/>
-      <c r="B63" s="51" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="57" t="s">
+      <c r="D63" s="60"/>
+      <c r="E63" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="57"/>
-      <c r="G63" s="59"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4634,13 +4651,13 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="52"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4661,19 +4678,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="49"/>
-      <c r="B65" s="51" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="57" t="s">
+      <c r="D65" s="60"/>
+      <c r="E65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="59"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4700,13 +4717,13 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="50"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="52"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4727,19 +4744,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="49"/>
-      <c r="B67" s="51" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="54"/>
-      <c r="E67" s="57" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="59"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4766,13 +4783,13 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="50"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="52"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4793,17 +4810,17 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="49">
+      <c r="A69" s="64">
         <v>2</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="47"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4830,13 +4847,13 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="50"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="61"/>
       <c r="C70" s="62"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="48"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4857,19 +4874,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="49"/>
-      <c r="B71" s="51" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="57" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="57"/>
-      <c r="G71" s="59" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="54" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4898,13 +4915,13 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="50"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="52"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4925,19 +4942,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="49"/>
-      <c r="B73" s="51" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="57" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="57"/>
-      <c r="G73" s="59"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4964,13 +4981,13 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="50"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="52"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4991,19 +5008,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="49"/>
-      <c r="B75" s="51" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="54"/>
-      <c r="E75" s="57" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="57"/>
-      <c r="G75" s="59"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5030,13 +5047,13 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="50"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="52"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5065,7 +5082,7 @@
       <c r="D77" s="69"/>
       <c r="E77" s="73"/>
       <c r="F77" s="73"/>
-      <c r="G77" s="65"/>
+      <c r="G77" s="111"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5099,7 +5116,7 @@
       <c r="D78" s="72"/>
       <c r="E78" s="74"/>
       <c r="F78" s="74"/>
-      <c r="G78" s="66"/>
+      <c r="G78" s="112"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5119,17 +5136,17 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="49">
+      <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="47"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5156,13 +5173,13 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="50"/>
-      <c r="B80" s="55"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="61"/>
       <c r="C80" s="62"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="48"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5183,19 +5200,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="49"/>
-      <c r="B81" s="51" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="57" t="s">
+      <c r="D81" s="60"/>
+      <c r="E81" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="57"/>
-      <c r="G81" s="59"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5224,13 +5241,13 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="50"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="52"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5251,19 +5268,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="49"/>
-      <c r="B83" s="51" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="57" t="s">
+      <c r="D83" s="60"/>
+      <c r="E83" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="57"/>
-      <c r="G83" s="59"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5290,13 +5307,13 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="50"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="52"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5325,7 +5342,7 @@
       <c r="D85" s="69"/>
       <c r="E85" s="73"/>
       <c r="F85" s="73"/>
-      <c r="G85" s="65"/>
+      <c r="G85" s="111"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5356,7 +5373,7 @@
       <c r="D86" s="72"/>
       <c r="E86" s="74"/>
       <c r="F86" s="74"/>
-      <c r="G86" s="66"/>
+      <c r="G86" s="112"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5376,17 +5393,17 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="49">
+      <c r="A87" s="64">
         <v>1</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="61"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="47"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5410,13 +5427,13 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="50"/>
-      <c r="B88" s="55"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="62"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="48"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5437,19 +5454,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="49"/>
-      <c r="B89" s="51" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="54"/>
-      <c r="E89" s="57" t="s">
+      <c r="D89" s="60"/>
+      <c r="E89" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="57"/>
-      <c r="G89" s="59"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5476,13 +5493,13 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="50"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="52"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5503,19 +5520,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="49"/>
-      <c r="B91" s="51" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="57" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="57"/>
-      <c r="G91" s="59"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5542,13 +5559,13 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="50"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="52"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5569,17 +5586,17 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="49">
+      <c r="A93" s="64">
         <v>2</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="61"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="47"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5603,13 +5620,13 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="50"/>
-      <c r="B94" s="55"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="61"/>
       <c r="C94" s="62"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="48"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5630,19 +5647,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="49"/>
-      <c r="B95" s="51" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="54"/>
-      <c r="E95" s="57" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="57"/>
-      <c r="G95" s="59"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5669,13 +5686,13 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="50"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="52"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5696,19 +5713,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="49"/>
-      <c r="B97" s="51" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="54"/>
-      <c r="E97" s="57" t="s">
+      <c r="D97" s="60"/>
+      <c r="E97" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="57"/>
-      <c r="G97" s="59"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5735,13 +5752,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="50"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="52"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5770,7 +5787,7 @@
       <c r="D99" s="69"/>
       <c r="E99" s="73"/>
       <c r="F99" s="73"/>
-      <c r="G99" s="65"/>
+      <c r="G99" s="111"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5801,7 +5818,7 @@
       <c r="D100" s="72"/>
       <c r="E100" s="74"/>
       <c r="F100" s="74"/>
-      <c r="G100" s="66"/>
+      <c r="G100" s="112"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5821,17 +5838,17 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="49">
+      <c r="A101" s="64">
         <v>1</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="47"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5855,13 +5872,13 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="50"/>
-      <c r="B102" s="55"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="62"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="48"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5882,19 +5899,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="49"/>
-      <c r="B103" s="51" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="54"/>
-      <c r="E103" s="57" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="57"/>
-      <c r="G103" s="59"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5921,13 +5938,13 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="50"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="52"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5948,19 +5965,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="49"/>
-      <c r="B105" s="51" t="s">
+      <c r="A105" s="64"/>
+      <c r="B105" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="54"/>
-      <c r="E105" s="57" t="s">
+      <c r="D105" s="60"/>
+      <c r="E105" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="57"/>
-      <c r="G105" s="59"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5987,13 +6004,13 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="50"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="52"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6014,17 +6031,17 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="49">
+      <c r="A107" s="64">
         <v>2</v>
       </c>
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="61"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="47"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -6048,13 +6065,13 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="50"/>
-      <c r="B108" s="55"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="61"/>
       <c r="C108" s="62"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="48"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -6075,19 +6092,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="49"/>
-      <c r="B109" s="51" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="54"/>
-      <c r="E109" s="57" t="s">
+      <c r="D109" s="60"/>
+      <c r="E109" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="57"/>
-      <c r="G109" s="59"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6114,13 +6131,13 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="50"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="52"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6141,19 +6158,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="49"/>
-      <c r="B111" s="51" t="s">
+      <c r="A111" s="64"/>
+      <c r="B111" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="54"/>
-      <c r="E111" s="57" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="57"/>
-      <c r="G111" s="59"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6180,13 +6197,13 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="50"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="52"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -6222,19 +6239,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6259,284 +6541,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6634,18 +6651,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6833,25 +6850,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B87ED-FA73-4103-810D-1B680C21BCBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE18C72-A5F5-4F53-8F4A-BD12D9E65426}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1620,12 +1620,57 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1635,203 +1680,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8:N9"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="105">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="105">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="105">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="105">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="106"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="109" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="107" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="108"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="91"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="111" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="111" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="114" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="114"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="86"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="81"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2677,15 +2677,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="102"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="47">
         <f>SUM(L7:S7)</f>
         <v>24</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="D8" s="72"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
-      <c r="G8" s="103"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="116">
+      <c r="K8" s="48">
         <f t="shared" ref="K8:K10" si="1">SUM(L8:S8)</f>
         <v>19.5</v>
       </c>
@@ -2743,24 +2743,24 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="47"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="117">
+      <c r="K9" s="49">
         <f t="shared" si="1"/>
         <v>20.3</v>
       </c>
@@ -2778,20 +2778,20 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="62"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="116">
+      <c r="K10" s="48">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2809,21 +2809,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="57" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2850,13 +2850,13 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="52"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2883,21 +2883,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="57" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2926,13 +2926,13 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2961,17 +2961,17 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49">
+      <c r="A15" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2998,13 +2998,13 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="62"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3029,19 +3029,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3070,13 +3070,13 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="52"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3105,19 +3105,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="57" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="59"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3146,13 +3146,13 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="52"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3178,19 +3178,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="57" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="59"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3217,13 +3217,13 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="52"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3258,7 +3258,7 @@
       <c r="D23" s="69"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
-      <c r="G23" s="65"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="D24" s="72"/>
       <c r="E24" s="74"/>
       <c r="F24" s="74"/>
-      <c r="G24" s="66"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3315,17 +3315,17 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49">
+      <c r="A25" s="64">
         <v>1</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="47"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3351,13 +3351,13 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="62"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3380,19 +3380,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="57" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="59" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="54" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3421,13 +3421,13 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="52"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3454,19 +3454,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="57" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="59"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3495,13 +3495,13 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="52"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3514,13 +3514,15 @@
       </c>
       <c r="K30" s="9">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L30" s="40"/>
       <c r="M30" s="41">
         <v>5</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="25">
+        <v>11</v>
+      </c>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
@@ -3528,19 +3530,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="49"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="57" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="59" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3569,13 +3571,13 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="52"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3602,19 +3604,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="57" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="59" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="54" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3643,26 +3645,32 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="52"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
+      <c r="I34" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="44">
+        <v>5</v>
+      </c>
       <c r="K34" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
+      <c r="N34" s="25">
+        <v>3</v>
+      </c>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
@@ -3670,17 +3678,17 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49">
+      <c r="A35" s="64">
         <v>2</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="47"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3707,13 +3715,13 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="62"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="48"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3734,19 +3742,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="49"/>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="57" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="59"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3773,13 +3781,13 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="50"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="52"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3800,19 +3808,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="57" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="59"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3839,13 +3847,13 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="52"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3866,19 +3874,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="49"/>
-      <c r="B41" s="51" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="57" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="59"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3905,13 +3913,13 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="52"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -3940,7 +3948,7 @@
       <c r="D43" s="69"/>
       <c r="E43" s="73"/>
       <c r="F43" s="73"/>
-      <c r="G43" s="65"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -3977,7 +3985,7 @@
       <c r="D44" s="72"/>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
-      <c r="G44" s="66"/>
+      <c r="G44" s="112"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3997,17 +4005,17 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="49">
+      <c r="A45" s="64">
         <v>1</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="47"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4037,13 +4045,13 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="62"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="48"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4064,19 +4072,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="49"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4105,13 +4113,13 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="50"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="52"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4132,19 +4140,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="49"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="57" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="59"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4173,13 +4181,13 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="52"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4200,17 +4208,17 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="49">
+      <c r="A51" s="64">
         <v>2</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="47"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4237,13 +4245,13 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="50"/>
-      <c r="B52" s="55"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="62"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="48"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4264,19 +4272,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="49"/>
-      <c r="B53" s="51" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="57" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="59"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4305,13 +4313,13 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="50"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="52"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4332,19 +4340,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="49"/>
-      <c r="B55" s="51" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="57" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="59"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4373,13 +4381,13 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="50"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="52"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4400,19 +4408,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="49"/>
-      <c r="B57" s="51" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="57" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="59"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4439,13 +4447,13 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="50"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="52"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4474,7 +4482,7 @@
       <c r="D59" s="69"/>
       <c r="E59" s="73"/>
       <c r="F59" s="73"/>
-      <c r="G59" s="65"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4508,7 +4516,7 @@
       <c r="D60" s="72"/>
       <c r="E60" s="74"/>
       <c r="F60" s="74"/>
-      <c r="G60" s="66"/>
+      <c r="G60" s="112"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4528,17 +4536,17 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="49">
+      <c r="A61" s="64">
         <v>1</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="47"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4568,13 +4576,13 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="50"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="62"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="48"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4595,19 +4603,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="49"/>
-      <c r="B63" s="51" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="57" t="s">
+      <c r="D63" s="60"/>
+      <c r="E63" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="57"/>
-      <c r="G63" s="59"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4634,13 +4642,13 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="52"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4661,19 +4669,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="49"/>
-      <c r="B65" s="51" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="57" t="s">
+      <c r="D65" s="60"/>
+      <c r="E65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="59"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4700,13 +4708,13 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="50"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="52"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4727,19 +4735,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="49"/>
-      <c r="B67" s="51" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="54"/>
-      <c r="E67" s="57" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="59"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4766,13 +4774,13 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="50"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="52"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4793,17 +4801,17 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="49">
+      <c r="A69" s="64">
         <v>2</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="47"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4830,13 +4838,13 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="50"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="61"/>
       <c r="C70" s="62"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="48"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4857,19 +4865,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="49"/>
-      <c r="B71" s="51" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="57" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="57"/>
-      <c r="G71" s="59" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="54" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4898,13 +4906,13 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="50"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="52"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4925,19 +4933,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="49"/>
-      <c r="B73" s="51" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="57" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="57"/>
-      <c r="G73" s="59"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4964,13 +4972,13 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="50"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="52"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4991,19 +4999,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="49"/>
-      <c r="B75" s="51" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="54"/>
-      <c r="E75" s="57" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="57"/>
-      <c r="G75" s="59"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5030,13 +5038,13 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="50"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="52"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5065,7 +5073,7 @@
       <c r="D77" s="69"/>
       <c r="E77" s="73"/>
       <c r="F77" s="73"/>
-      <c r="G77" s="65"/>
+      <c r="G77" s="111"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5099,7 +5107,7 @@
       <c r="D78" s="72"/>
       <c r="E78" s="74"/>
       <c r="F78" s="74"/>
-      <c r="G78" s="66"/>
+      <c r="G78" s="112"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5119,17 +5127,17 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="49">
+      <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="47"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5156,13 +5164,13 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="50"/>
-      <c r="B80" s="55"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="61"/>
       <c r="C80" s="62"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="48"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5183,19 +5191,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="49"/>
-      <c r="B81" s="51" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="57" t="s">
+      <c r="D81" s="60"/>
+      <c r="E81" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="57"/>
-      <c r="G81" s="59"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5224,13 +5232,13 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="50"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="52"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5251,19 +5259,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="49"/>
-      <c r="B83" s="51" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="57" t="s">
+      <c r="D83" s="60"/>
+      <c r="E83" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="57"/>
-      <c r="G83" s="59"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5290,13 +5298,13 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="50"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="52"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5325,7 +5333,7 @@
       <c r="D85" s="69"/>
       <c r="E85" s="73"/>
       <c r="F85" s="73"/>
-      <c r="G85" s="65"/>
+      <c r="G85" s="111"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5356,7 +5364,7 @@
       <c r="D86" s="72"/>
       <c r="E86" s="74"/>
       <c r="F86" s="74"/>
-      <c r="G86" s="66"/>
+      <c r="G86" s="112"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5376,17 +5384,17 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="49">
+      <c r="A87" s="64">
         <v>1</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="61"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="47"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5410,13 +5418,13 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="50"/>
-      <c r="B88" s="55"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="62"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="48"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5437,19 +5445,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="49"/>
-      <c r="B89" s="51" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="54"/>
-      <c r="E89" s="57" t="s">
+      <c r="D89" s="60"/>
+      <c r="E89" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="57"/>
-      <c r="G89" s="59"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5476,13 +5484,13 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="50"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="52"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5503,19 +5511,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="49"/>
-      <c r="B91" s="51" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="57" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="57"/>
-      <c r="G91" s="59"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5542,13 +5550,13 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="50"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="52"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -5569,17 +5577,17 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="49">
+      <c r="A93" s="64">
         <v>2</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="61"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="47"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5603,13 +5611,13 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="50"/>
-      <c r="B94" s="55"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="61"/>
       <c r="C94" s="62"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="48"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5630,19 +5638,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="49"/>
-      <c r="B95" s="51" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="54"/>
-      <c r="E95" s="57" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="57"/>
-      <c r="G95" s="59"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5669,13 +5677,13 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="50"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="52"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5696,19 +5704,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="49"/>
-      <c r="B97" s="51" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="54"/>
-      <c r="E97" s="57" t="s">
+      <c r="D97" s="60"/>
+      <c r="E97" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="57"/>
-      <c r="G97" s="59"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5735,13 +5743,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="50"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="52"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -5770,7 +5778,7 @@
       <c r="D99" s="69"/>
       <c r="E99" s="73"/>
       <c r="F99" s="73"/>
-      <c r="G99" s="65"/>
+      <c r="G99" s="111"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5801,7 +5809,7 @@
       <c r="D100" s="72"/>
       <c r="E100" s="74"/>
       <c r="F100" s="74"/>
-      <c r="G100" s="66"/>
+      <c r="G100" s="112"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5821,17 +5829,17 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="49">
+      <c r="A101" s="64">
         <v>1</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="47"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5855,13 +5863,13 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="50"/>
-      <c r="B102" s="55"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="61"/>
       <c r="C102" s="62"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="48"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5882,19 +5890,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="49"/>
-      <c r="B103" s="51" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="54"/>
-      <c r="E103" s="57" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="57"/>
-      <c r="G103" s="59"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5921,13 +5929,13 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="50"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="55"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="52"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5948,19 +5956,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="49"/>
-      <c r="B105" s="51" t="s">
+      <c r="A105" s="64"/>
+      <c r="B105" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="54"/>
-      <c r="E105" s="57" t="s">
+      <c r="D105" s="60"/>
+      <c r="E105" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="57"/>
-      <c r="G105" s="59"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5987,13 +5995,13 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="50"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="52"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6014,17 +6022,17 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="49">
+      <c r="A107" s="64">
         <v>2</v>
       </c>
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="61"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="47"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -6048,13 +6056,13 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="50"/>
-      <c r="B108" s="55"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="61"/>
       <c r="C108" s="62"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="48"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -6075,19 +6083,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="49"/>
-      <c r="B109" s="51" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="54"/>
-      <c r="E109" s="57" t="s">
+      <c r="D109" s="60"/>
+      <c r="E109" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="57"/>
-      <c r="G109" s="59"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6114,13 +6122,13 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="50"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="52"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6141,19 +6149,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="49"/>
-      <c r="B111" s="51" t="s">
+      <c r="A111" s="64"/>
+      <c r="B111" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="54"/>
-      <c r="E111" s="57" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="57"/>
-      <c r="G111" s="59"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6180,13 +6188,13 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="50"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="52"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -6222,19 +6230,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6259,284 +6532,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6643,12 +6651,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6832,6 +6834,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6841,22 +6849,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6872,4 +6864,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE18C72-A5F5-4F53-8F4A-BD12D9E65426}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3175400-82A8-4093-9989-2132F45D47EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1635,6 +1635,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,7 +1668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,31 +1683,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1713,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,105 +1832,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="108">
         <v>43984</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="109"/>
+      <c r="N1" s="108">
         <v>43985</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="109"/>
+      <c r="P1" s="108">
         <v>43986</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="109"/>
+      <c r="R1" s="108">
         <v>43987</v>
       </c>
-      <c r="S1" s="76"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="83" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="81" t="s">
+      <c r="M3" s="115"/>
+      <c r="N3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="84" t="s">
+      <c r="Q3" s="115"/>
+      <c r="R3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="84"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="87"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="115"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2677,15 +2677,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2711,13 +2711,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2743,16 +2743,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2778,12 +2778,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2809,21 +2809,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2850,12 +2850,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2883,21 +2883,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="52" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2926,12 +2926,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2961,16 +2961,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2998,12 +2998,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3029,19 +3029,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3070,12 +3070,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3105,19 +3105,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3146,12 +3146,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3178,19 +3178,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3217,12 +3217,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3250,15 +3250,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="111"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3285,13 +3285,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="112"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3301,13 +3301,16 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>23.5</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="29">
         <v>9.5</v>
       </c>
-      <c r="N24" s="29"/>
+      <c r="N24" s="29">
+        <f>SUM(N26,N36)</f>
+        <v>14</v>
+      </c>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
@@ -3315,16 +3318,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="52">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3351,12 +3354,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3366,13 +3369,16 @@
       <c r="J26" s="19"/>
       <c r="K26" s="9">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>23.5</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="25">
         <v>9.5</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="25">
+        <f>SUM(N30,N34,N38,N40,N42)</f>
+        <v>14</v>
+      </c>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
@@ -3380,19 +3386,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3421,12 +3427,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3454,19 +3460,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3495,12 +3501,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3530,19 +3536,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3571,12 +3577,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3604,19 +3610,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="54" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="62" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3645,12 +3651,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3678,16 +3684,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="52">
         <v>2</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3715,12 +3721,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3742,19 +3748,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="52" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3781,12 +3787,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3808,19 +3814,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="52" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3847,12 +3853,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3874,19 +3880,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="52" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="54"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3913,12 +3919,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3940,15 +3946,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="111"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -3979,13 +3985,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="112"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4005,16 +4011,16 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="52">
         <v>1</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4045,12 +4051,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4072,19 +4078,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="52" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4113,12 +4119,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4140,19 +4146,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="52" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="54"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4181,12 +4187,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4208,16 +4214,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="52">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4245,12 +4251,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4272,19 +4278,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="52" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4313,12 +4319,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4340,19 +4346,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="52" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4381,12 +4387,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4408,19 +4414,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="52" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="54"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4447,12 +4453,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4474,15 +4480,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="111"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4510,13 +4516,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="112"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4536,16 +4542,16 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64">
+      <c r="A61" s="52">
         <v>1</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4576,12 +4582,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4603,19 +4609,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="52"/>
+      <c r="B63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="52" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4642,12 +4648,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4669,19 +4675,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="57"/>
+      <c r="E65" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4708,12 +4714,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4735,19 +4741,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="54"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4774,12 +4780,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4801,16 +4807,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="64">
+      <c r="A69" s="52">
         <v>2</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4838,12 +4844,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4865,19 +4871,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="52" t="s">
+      <c r="D71" s="57"/>
+      <c r="E71" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="60"/>
+      <c r="G71" s="62" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4906,12 +4912,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4933,19 +4939,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4972,12 +4978,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4999,19 +5005,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="66" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="52" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="54"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5038,12 +5044,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5065,15 +5071,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="111"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5101,13 +5107,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="70"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="112"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5127,16 +5133,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="64">
+      <c r="A79" s="52">
         <v>1</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5164,12 +5170,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5191,19 +5197,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="66" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="52" t="s">
+      <c r="D81" s="57"/>
+      <c r="E81" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5232,12 +5238,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5259,19 +5265,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="66" t="s">
+      <c r="A83" s="52"/>
+      <c r="B83" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="52" t="s">
+      <c r="D83" s="57"/>
+      <c r="E83" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="52"/>
-      <c r="G83" s="54"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5298,12 +5304,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5325,15 +5331,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="111"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5358,13 +5364,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="70"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="112"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="69"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5384,16 +5390,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64">
+      <c r="A87" s="52">
         <v>1</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5418,12 +5424,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5445,19 +5451,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="66" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="52" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="52"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5484,12 +5490,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5511,19 +5517,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="66" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="117" t="s">
+      <c r="C91" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="52" t="s">
+      <c r="D91" s="57"/>
+      <c r="E91" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="52"/>
-      <c r="G91" s="54"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5550,12 +5556,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5577,16 +5583,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="64">
+      <c r="A93" s="52">
         <v>2</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5611,12 +5617,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5638,19 +5644,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="52" t="s">
+      <c r="D95" s="57"/>
+      <c r="E95" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="52"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5677,12 +5683,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5704,19 +5710,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="66" t="s">
+      <c r="A97" s="52"/>
+      <c r="B97" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="52" t="s">
+      <c r="D97" s="57"/>
+      <c r="E97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="52"/>
-      <c r="G97" s="54"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5743,12 +5749,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5770,15 +5776,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="111"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5803,13 +5809,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="70"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="112"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="69"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5829,16 +5835,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64">
+      <c r="A101" s="52">
         <v>1</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5863,12 +5869,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5890,19 +5896,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="66" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="52" t="s">
+      <c r="D103" s="57"/>
+      <c r="E103" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="52"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5929,12 +5935,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5956,19 +5962,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="52" t="s">
+      <c r="D105" s="57"/>
+      <c r="E105" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="52"/>
-      <c r="G105" s="54"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5995,12 +6001,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="65"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6022,16 +6028,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="64">
+      <c r="A107" s="52">
         <v>2</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6056,12 +6062,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="65"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6083,19 +6089,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="66" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="52" t="s">
+      <c r="D109" s="57"/>
+      <c r="E109" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="52"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6122,12 +6128,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="65"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6149,19 +6155,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="66" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="52" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="52"/>
-      <c r="G111" s="54"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6188,12 +6194,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="65"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6230,95 +6236,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6343,208 +6462,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6651,6 +6657,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6834,12 +6846,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6849,6 +6855,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6864,20 +6886,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3175400-82A8-4093-9989-2132F45D47EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B226C-648F-46A3-9F2E-9AFB7849E82A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1050" windowWidth="20475" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -1635,6 +1635,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1644,194 +1680,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="108">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="108">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="108">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="109"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="112" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="110" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="111"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="116" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="115"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="117" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="117"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="89"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="84"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2669,9 @@
       <c r="M6" s="39">
         <v>15</v>
       </c>
-      <c r="N6" s="39"/>
+      <c r="N6" s="39">
+        <v>14</v>
+      </c>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
@@ -2677,15 +2679,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2711,13 +2713,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="106"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2743,16 +2745,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2778,12 +2780,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2809,21 +2811,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2850,12 +2852,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2883,21 +2885,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2926,12 +2928,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2961,16 +2963,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="A15" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2998,12 +3000,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3029,19 +3031,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3070,12 +3072,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3105,19 +3107,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3146,12 +3148,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3178,19 +3180,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3217,12 +3219,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3250,15 +3252,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3285,13 +3287,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3318,16 +3320,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="64">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3354,12 +3356,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3386,19 +3388,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="62" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="54" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3427,12 +3429,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3460,19 +3462,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3501,12 +3503,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3536,19 +3538,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3577,12 +3579,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3610,19 +3612,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="62" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="54" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3651,12 +3653,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3684,16 +3686,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
+      <c r="A35" s="64">
         <v>2</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3721,12 +3723,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3736,31 +3738,34 @@
       <c r="J36" s="19"/>
       <c r="K36" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
+      <c r="O36" s="25">
+        <f>SUM(O38,O40,O42,)</f>
+        <v>3</v>
+      </c>
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3787,12 +3792,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3802,31 +3807,33 @@
       <c r="J38" s="45"/>
       <c r="K38" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" s="34"/>
       <c r="M38" s="43"/>
       <c r="N38" s="42"/>
-      <c r="O38" s="25"/>
+      <c r="O38" s="25">
+        <v>2</v>
+      </c>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3853,12 +3860,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3868,31 +3875,33 @@
       <c r="J40" s="44"/>
       <c r="K40" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="42"/>
       <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
+      <c r="O40" s="25">
+        <v>0.5</v>
+      </c>
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="62"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3919,12 +3928,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3934,27 +3943,29 @@
       <c r="J42" s="44"/>
       <c r="K42" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="40"/>
       <c r="M42" s="42"/>
       <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
+      <c r="O42" s="25">
+        <v>0.5</v>
+      </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -3985,13 +3996,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="69"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="112"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4011,16 +4022,16 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
+      <c r="A45" s="64">
         <v>1</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4051,12 +4062,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4078,19 +4089,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4119,12 +4130,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4134,31 +4145,33 @@
       <c r="J48" s="44"/>
       <c r="K48" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
+      <c r="O48" s="25">
+        <v>10</v>
+      </c>
       <c r="P48" s="25"/>
       <c r="Q48" s="25"/>
       <c r="R48" s="25"/>
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4187,12 +4200,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="53"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4214,16 +4227,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
+      <c r="A51" s="64">
         <v>2</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4251,12 +4264,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4278,19 +4291,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="54" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4319,12 +4332,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4346,19 +4359,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4387,12 +4400,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4414,19 +4427,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="54" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4453,12 +4466,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4480,15 +4493,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4516,13 +4529,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="69"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="112"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4542,16 +4555,16 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="52">
+      <c r="A61" s="64">
         <v>1</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4582,12 +4595,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4609,19 +4622,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="60"/>
+      <c r="E63" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4648,12 +4661,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4675,19 +4688,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="60"/>
+      <c r="E65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4714,12 +4727,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4741,19 +4754,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4780,12 +4793,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="53"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4807,16 +4820,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52">
+      <c r="A69" s="64">
         <v>2</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4844,12 +4857,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4871,19 +4884,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="54" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="54" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4912,12 +4925,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4939,19 +4952,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4978,12 +4991,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5005,19 +5018,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5044,12 +5057,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="53"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5071,15 +5084,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="111"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5107,13 +5120,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="112"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5133,16 +5146,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
+      <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5170,12 +5183,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="53"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5197,19 +5210,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="60"/>
+      <c r="E81" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5238,12 +5251,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="53"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5265,19 +5278,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="60"/>
+      <c r="E83" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5304,12 +5317,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="53"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5331,15 +5344,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="111"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5364,13 +5377,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="112"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5390,16 +5403,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52">
+      <c r="A87" s="64">
         <v>1</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5424,12 +5437,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5451,19 +5464,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="60"/>
+      <c r="E89" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5490,12 +5503,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="53"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5517,19 +5530,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="60" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="62"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5556,12 +5569,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="53"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5583,16 +5596,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
+      <c r="A93" s="64">
         <v>2</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5617,12 +5630,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5644,19 +5657,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="54" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5683,12 +5696,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="53"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5710,19 +5723,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="60" t="s">
+      <c r="D97" s="60"/>
+      <c r="E97" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="62"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5749,12 +5762,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="53"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5776,15 +5789,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="111"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5809,13 +5822,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="112"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5835,16 +5848,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="52">
+      <c r="A101" s="64">
         <v>1</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5869,12 +5882,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="53"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5896,19 +5909,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="54" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="57"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5935,12 +5948,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="53"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5962,19 +5975,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="54" t="s">
+      <c r="A105" s="64"/>
+      <c r="B105" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="60" t="s">
+      <c r="D105" s="60"/>
+      <c r="E105" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6001,12 +6014,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="53"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6028,16 +6041,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
+      <c r="A107" s="64">
         <v>2</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="64"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6062,12 +6075,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="53"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6089,19 +6102,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="60"/>
+      <c r="E109" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6128,12 +6141,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="53"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6155,19 +6168,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="64"/>
+      <c r="B111" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="60" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="62"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6194,12 +6207,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6236,19 +6249,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6273,284 +6551,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6657,12 +6670,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6846,6 +6853,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6855,22 +6868,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6886,4 +6883,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B226C-648F-46A3-9F2E-9AFB7849E82A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA3BD1-F816-403F-97C8-A90290C995FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1050" windowWidth="20475" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="510" windowWidth="20475" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3803,7 +3803,9 @@
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="44"/>
+      <c r="I38" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J38" s="45"/>
       <c r="K38" s="9">
         <f t="shared" si="2"/>
@@ -3871,7 +3873,9 @@
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="44"/>
+      <c r="I40" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J40" s="44"/>
       <c r="K40" s="9">
         <f t="shared" si="2"/>
@@ -3939,7 +3943,9 @@
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="44"/>
+      <c r="I42" s="44" t="s">
+        <v>60</v>
+      </c>
       <c r="J42" s="44"/>
       <c r="K42" s="9">
         <f t="shared" si="2"/>
@@ -4141,7 +4147,9 @@
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="44"/>
+      <c r="I48" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J48" s="44"/>
       <c r="K48" s="9">
         <f t="shared" si="2"/>

--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA3BD1-F816-403F-97C8-A90290C995FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99248D2-A961-438D-9743-06D497086942}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="510" windowWidth="20475" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2672,7 +2672,9 @@
       <c r="N6" s="39">
         <v>14</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="39">
+        <v>15</v>
+      </c>
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
@@ -3738,14 +3740,14 @@
       <c r="J36" s="19"/>
       <c r="K36" s="9">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25">
         <f>SUM(O38,O40,O42,)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
@@ -3879,13 +3881,13 @@
       <c r="J40" s="44"/>
       <c r="K40" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="42"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
@@ -3949,13 +3951,13 @@
       <c r="J42" s="44"/>
       <c r="K42" s="9">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L42" s="40"/>
       <c r="M42" s="42"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
@@ -4153,13 +4155,13 @@
       <c r="J48" s="44"/>
       <c r="K48" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
       <c r="O48" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P48" s="25"/>
       <c r="Q48" s="25"/>

--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99248D2-A961-438D-9743-06D497086942}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A02D76-CC9D-44B4-B88B-1CAA5453B856}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="510" windowWidth="20475" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -1635,6 +1635,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,7 +1668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,31 +1683,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1713,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,105 +1832,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="108">
         <v>43984</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="109"/>
+      <c r="N1" s="108">
         <v>43985</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="109"/>
+      <c r="P1" s="108">
         <v>43986</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="109"/>
+      <c r="R1" s="108">
         <v>43987</v>
       </c>
-      <c r="S1" s="76"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="83" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="81" t="s">
+      <c r="M3" s="115"/>
+      <c r="N3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="84" t="s">
+      <c r="Q3" s="115"/>
+      <c r="R3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="84"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="87"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="115"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2681,15 +2681,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2715,13 +2715,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2747,16 +2747,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2782,12 +2782,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2813,21 +2813,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2854,12 +2854,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2887,21 +2887,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="52" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2930,12 +2930,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2965,16 +2965,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3002,12 +3002,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3033,19 +3033,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3074,12 +3074,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3109,19 +3109,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3150,12 +3150,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3182,19 +3182,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3221,12 +3221,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3254,15 +3254,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="111"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3289,13 +3289,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="112"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3322,16 +3322,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="52">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3358,12 +3358,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3390,19 +3390,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3431,12 +3431,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3464,19 +3464,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3505,12 +3505,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3540,19 +3540,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3581,12 +3581,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3614,19 +3614,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="54" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="62" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3655,12 +3655,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3688,16 +3688,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="52">
         <v>2</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3725,12 +3725,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3755,19 +3755,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="52" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3794,12 +3794,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3808,7 +3808,9 @@
       <c r="I38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J38" s="45"/>
+      <c r="J38" s="45">
+        <v>5</v>
+      </c>
       <c r="K38" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3825,19 +3827,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="52" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3864,12 +3866,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3878,7 +3880,9 @@
       <c r="I40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="44"/>
+      <c r="J40" s="44">
+        <v>5</v>
+      </c>
       <c r="K40" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3895,19 +3899,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="52" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="54"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3934,12 +3938,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3948,7 +3952,9 @@
       <c r="I42" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="44"/>
+      <c r="J42" s="44">
+        <v>1</v>
+      </c>
       <c r="K42" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3965,15 +3971,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="111"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -4004,13 +4010,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="112"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4030,16 +4036,16 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="52">
         <v>1</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4070,12 +4076,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4097,19 +4103,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="52" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4138,12 +4144,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4152,7 +4158,9 @@
       <c r="I48" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="44"/>
+      <c r="J48" s="44">
+        <v>5</v>
+      </c>
       <c r="K48" s="9">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4169,19 +4177,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="52" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="54"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4210,12 +4218,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4237,16 +4245,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="52">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4274,12 +4282,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4301,19 +4309,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="52" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4342,12 +4350,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4369,19 +4377,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="52" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4410,12 +4418,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4437,19 +4445,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="52" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="54"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4476,12 +4484,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4503,15 +4511,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="111"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4539,13 +4547,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="112"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4565,16 +4573,16 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64">
+      <c r="A61" s="52">
         <v>1</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4605,12 +4613,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4632,19 +4640,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="52"/>
+      <c r="B63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="52" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4671,12 +4679,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4698,19 +4706,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="57"/>
+      <c r="E65" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4737,12 +4745,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4764,19 +4772,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="54"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4803,12 +4811,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4830,16 +4838,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="64">
+      <c r="A69" s="52">
         <v>2</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4867,12 +4875,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4894,19 +4902,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="52" t="s">
+      <c r="D71" s="57"/>
+      <c r="E71" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="60"/>
+      <c r="G71" s="62" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4935,12 +4943,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4962,19 +4970,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5001,12 +5009,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5028,19 +5036,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="66" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="52" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="54"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5067,12 +5075,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5094,15 +5102,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="111"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5130,13 +5138,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="70"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="112"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5156,16 +5164,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="64">
+      <c r="A79" s="52">
         <v>1</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5193,12 +5201,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5220,19 +5228,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="66" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="52" t="s">
+      <c r="D81" s="57"/>
+      <c r="E81" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5261,12 +5269,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5288,19 +5296,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="66" t="s">
+      <c r="A83" s="52"/>
+      <c r="B83" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="52" t="s">
+      <c r="D83" s="57"/>
+      <c r="E83" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="52"/>
-      <c r="G83" s="54"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5327,12 +5335,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5354,15 +5362,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="111"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5387,13 +5395,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="70"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="112"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="69"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5413,16 +5421,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64">
+      <c r="A87" s="52">
         <v>1</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5447,12 +5455,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5474,19 +5482,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="66" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="52" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="52"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5513,12 +5521,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5540,19 +5548,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="66" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="117" t="s">
+      <c r="C91" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="52" t="s">
+      <c r="D91" s="57"/>
+      <c r="E91" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="52"/>
-      <c r="G91" s="54"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5579,12 +5587,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5606,16 +5614,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="64">
+      <c r="A93" s="52">
         <v>2</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5640,12 +5648,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5667,19 +5675,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="52" t="s">
+      <c r="D95" s="57"/>
+      <c r="E95" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="52"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5706,12 +5714,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5733,19 +5741,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="66" t="s">
+      <c r="A97" s="52"/>
+      <c r="B97" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="52" t="s">
+      <c r="D97" s="57"/>
+      <c r="E97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="52"/>
-      <c r="G97" s="54"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5772,12 +5780,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5799,15 +5807,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="111"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5832,13 +5840,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="70"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="112"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="69"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5858,16 +5866,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64">
+      <c r="A101" s="52">
         <v>1</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5892,12 +5900,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5919,19 +5927,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="66" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="52" t="s">
+      <c r="D103" s="57"/>
+      <c r="E103" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="52"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5958,12 +5966,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5985,19 +5993,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="52" t="s">
+      <c r="D105" s="57"/>
+      <c r="E105" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="52"/>
-      <c r="G105" s="54"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6024,12 +6032,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="65"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6051,16 +6059,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="64">
+      <c r="A107" s="52">
         <v>2</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6085,12 +6093,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="65"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6112,19 +6120,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="66" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="52" t="s">
+      <c r="D109" s="57"/>
+      <c r="E109" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="52"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6151,12 +6159,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="65"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6178,19 +6186,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="66" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="52" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="52"/>
-      <c r="G111" s="54"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6217,12 +6225,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="65"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6259,95 +6267,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6372,208 +6493,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6680,6 +6688,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6863,12 +6877,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6878,6 +6886,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6893,20 +6917,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A02D76-CC9D-44B4-B88B-1CAA5453B856}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43AD18-A814-4D8A-9A60-A10D21807DC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1635,6 +1635,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1644,194 +1680,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="108">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="108">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="108">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="109"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="112" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="110" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="111"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="116" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="115"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="117" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="117"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="89"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="84"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2681,15 +2681,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2715,13 +2715,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="106"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2747,16 +2747,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2782,12 +2782,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2813,21 +2813,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2854,12 +2854,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2887,21 +2887,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2930,12 +2930,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2965,16 +2965,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="A15" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3002,12 +3002,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3033,19 +3033,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3074,12 +3074,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3109,19 +3109,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3150,12 +3150,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3182,19 +3182,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3221,12 +3221,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3254,15 +3254,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3289,13 +3289,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>27.5</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="29">
@@ -3315,23 +3315,25 @@
         <f>SUM(N26,N36)</f>
         <v>14</v>
       </c>
-      <c r="O24" s="29"/>
+      <c r="O24" s="29">
+        <v>4</v>
+      </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="64">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3358,12 +3360,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3390,19 +3392,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="62" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="54" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3431,12 +3433,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3464,19 +3466,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3505,12 +3507,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3540,19 +3542,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3581,12 +3583,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3614,19 +3616,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="62" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="54" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3655,12 +3657,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3688,16 +3690,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
+      <c r="A35" s="64">
         <v>2</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3725,12 +3727,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3755,19 +3757,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3794,12 +3796,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3827,19 +3829,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3866,12 +3868,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3899,19 +3901,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="62"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3938,12 +3940,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3971,15 +3973,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -4010,13 +4012,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="69"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="112"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4024,28 +4026,30 @@
       <c r="J44" s="7"/>
       <c r="K44" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
+      <c r="O44" s="29">
+        <v>11</v>
+      </c>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
+      <c r="A45" s="64">
         <v>1</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4076,12 +4080,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4103,19 +4107,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4144,12 +4148,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4177,19 +4181,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4218,12 +4222,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="53"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4245,16 +4249,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
+      <c r="A51" s="64">
         <v>2</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4282,12 +4286,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4309,19 +4313,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="54" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4350,12 +4354,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4377,19 +4381,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4418,12 +4422,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4445,19 +4449,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="54" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4484,12 +4488,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4511,15 +4515,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4547,13 +4551,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="69"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="112"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4573,16 +4577,16 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="52">
+      <c r="A61" s="64">
         <v>1</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4613,12 +4617,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4640,19 +4644,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="60"/>
+      <c r="E63" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4679,12 +4683,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4706,19 +4710,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="60"/>
+      <c r="E65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4745,12 +4749,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4772,19 +4776,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4811,12 +4815,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="53"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4838,16 +4842,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52">
+      <c r="A69" s="64">
         <v>2</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4875,12 +4879,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4902,19 +4906,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="54" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="54" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4943,12 +4947,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4970,19 +4974,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5009,12 +5013,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5036,19 +5040,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5075,12 +5079,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="53"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5102,15 +5106,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="111"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5138,13 +5142,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="112"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5164,16 +5168,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
+      <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5201,12 +5205,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="53"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5228,19 +5232,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="60"/>
+      <c r="E81" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5269,12 +5273,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="53"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5296,19 +5300,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="60"/>
+      <c r="E83" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5335,12 +5339,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="53"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5362,15 +5366,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="111"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5395,13 +5399,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="112"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5421,16 +5425,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52">
+      <c r="A87" s="64">
         <v>1</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5455,12 +5459,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5482,19 +5486,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="60"/>
+      <c r="E89" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5521,12 +5525,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="53"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5548,19 +5552,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="60" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="62"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5587,12 +5591,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="53"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5614,16 +5618,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
+      <c r="A93" s="64">
         <v>2</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5648,12 +5652,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5675,19 +5679,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="54" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5714,12 +5718,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="53"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5741,19 +5745,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="60" t="s">
+      <c r="D97" s="60"/>
+      <c r="E97" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="62"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5780,12 +5784,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="53"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5807,15 +5811,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="111"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5840,13 +5844,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="112"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5866,16 +5870,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="52">
+      <c r="A101" s="64">
         <v>1</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5900,12 +5904,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="53"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5927,19 +5931,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="54" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="57"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5966,12 +5970,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="53"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5993,19 +5997,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="54" t="s">
+      <c r="A105" s="64"/>
+      <c r="B105" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="60" t="s">
+      <c r="D105" s="60"/>
+      <c r="E105" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6032,12 +6036,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="53"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6059,16 +6063,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
+      <c r="A107" s="64">
         <v>2</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="64"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6093,12 +6097,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="53"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6120,19 +6124,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="60"/>
+      <c r="E109" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6159,12 +6163,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="53"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6186,19 +6190,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="64"/>
+      <c r="B111" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="60" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="62"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6225,12 +6229,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6267,19 +6271,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6304,284 +6573,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6688,12 +6692,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6877,6 +6875,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6886,22 +6890,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6917,4 +6905,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43AD18-A814-4D8A-9A60-A10D21807DC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E1513E-42A6-4CE2-A1CA-E7A15B3A96F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="300" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -1635,6 +1635,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,7 +1668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,31 +1683,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1713,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,105 +1832,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="108">
         <v>43984</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="109"/>
+      <c r="N1" s="108">
         <v>43985</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="109"/>
+      <c r="P1" s="108">
         <v>43986</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="109"/>
+      <c r="R1" s="108">
         <v>43987</v>
       </c>
-      <c r="S1" s="76"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="83" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="81" t="s">
+      <c r="M3" s="115"/>
+      <c r="N3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="84" t="s">
+      <c r="Q3" s="115"/>
+      <c r="R3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="84"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="87"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="115"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2675,21 +2675,23 @@
       <c r="O6" s="39">
         <v>15</v>
       </c>
-      <c r="P6" s="39"/>
+      <c r="P6" s="39">
+        <v>14</v>
+      </c>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2715,13 +2717,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2747,16 +2749,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2782,12 +2784,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2813,21 +2815,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2854,12 +2856,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2887,21 +2889,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="52" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2930,12 +2932,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2965,16 +2967,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3002,12 +3004,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3033,19 +3035,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3074,12 +3076,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3109,19 +3111,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3150,12 +3152,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3182,19 +3184,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3221,12 +3223,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3254,15 +3256,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="111"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3289,13 +3291,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="112"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3324,16 +3326,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="52">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3360,12 +3362,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3392,19 +3394,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3433,12 +3435,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3466,19 +3468,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3507,12 +3509,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3542,19 +3544,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3583,12 +3585,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3616,19 +3618,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="54" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="62" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3657,12 +3659,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3690,16 +3692,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="52">
         <v>2</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3727,12 +3729,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3757,19 +3759,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="52" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3796,12 +3798,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3829,19 +3831,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="52" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3868,12 +3870,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3901,19 +3903,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="52" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="54"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3940,12 +3942,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3973,15 +3975,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="111"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -4012,13 +4014,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="112"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4040,16 +4042,16 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="52">
         <v>1</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4080,12 +4082,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4107,19 +4109,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="52" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4148,12 +4150,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4167,7 +4169,7 @@
       </c>
       <c r="K48" s="9">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="25"/>
@@ -4175,25 +4177,27 @@
       <c r="O48" s="25">
         <v>11</v>
       </c>
-      <c r="P48" s="25"/>
+      <c r="P48" s="25">
+        <v>1</v>
+      </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="25"/>
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="52" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="54"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4222,12 +4226,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4237,28 +4241,30 @@
       <c r="J50" s="44"/>
       <c r="K50" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L50" s="34"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
+      <c r="P50" s="25">
+        <v>13</v>
+      </c>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="52">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4286,12 +4292,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4313,19 +4319,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="52" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4354,12 +4360,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4381,19 +4387,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="52" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4422,12 +4428,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4449,19 +4455,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="52" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="54"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4488,12 +4494,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4515,15 +4521,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="111"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4551,13 +4557,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="112"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4577,16 +4583,16 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64">
+      <c r="A61" s="52">
         <v>1</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4617,12 +4623,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4644,19 +4650,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="52"/>
+      <c r="B63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="52" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4683,12 +4689,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4710,19 +4716,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="57"/>
+      <c r="E65" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4749,12 +4755,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4776,19 +4782,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="54"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4815,12 +4821,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4842,16 +4848,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="64">
+      <c r="A69" s="52">
         <v>2</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4879,12 +4885,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4906,19 +4912,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="52" t="s">
+      <c r="D71" s="57"/>
+      <c r="E71" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="60"/>
+      <c r="G71" s="62" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4947,12 +4953,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4974,19 +4980,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5013,12 +5019,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5040,19 +5046,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="66" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="52" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="54"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5079,12 +5085,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5106,15 +5112,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="111"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5142,13 +5148,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="70"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="112"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5168,16 +5174,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="64">
+      <c r="A79" s="52">
         <v>1</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5205,12 +5211,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5232,19 +5238,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="66" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="52" t="s">
+      <c r="D81" s="57"/>
+      <c r="E81" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5273,12 +5279,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5300,19 +5306,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="66" t="s">
+      <c r="A83" s="52"/>
+      <c r="B83" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="52" t="s">
+      <c r="D83" s="57"/>
+      <c r="E83" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="52"/>
-      <c r="G83" s="54"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5339,12 +5345,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5366,15 +5372,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="111"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5399,13 +5405,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="70"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="112"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="69"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5425,16 +5431,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64">
+      <c r="A87" s="52">
         <v>1</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5459,12 +5465,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5486,19 +5492,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="66" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="52" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="52"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5525,12 +5531,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5552,19 +5558,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="66" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="117" t="s">
+      <c r="C91" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="52" t="s">
+      <c r="D91" s="57"/>
+      <c r="E91" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="52"/>
-      <c r="G91" s="54"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5591,12 +5597,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5618,16 +5624,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="64">
+      <c r="A93" s="52">
         <v>2</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5652,12 +5658,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5679,19 +5685,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="52" t="s">
+      <c r="D95" s="57"/>
+      <c r="E95" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="52"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5718,12 +5724,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5745,19 +5751,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="66" t="s">
+      <c r="A97" s="52"/>
+      <c r="B97" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="52" t="s">
+      <c r="D97" s="57"/>
+      <c r="E97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="52"/>
-      <c r="G97" s="54"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5784,12 +5790,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5811,15 +5817,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="111"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5844,13 +5850,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="70"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="112"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="69"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5870,16 +5876,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64">
+      <c r="A101" s="52">
         <v>1</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5904,12 +5910,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5931,19 +5937,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="66" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="52" t="s">
+      <c r="D103" s="57"/>
+      <c r="E103" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="52"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5970,12 +5976,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5997,19 +6003,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="52" t="s">
+      <c r="D105" s="57"/>
+      <c r="E105" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="52"/>
-      <c r="G105" s="54"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6036,12 +6042,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="65"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6063,16 +6069,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="64">
+      <c r="A107" s="52">
         <v>2</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6097,12 +6103,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="65"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6124,19 +6130,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="66" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="52" t="s">
+      <c r="D109" s="57"/>
+      <c r="E109" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="52"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6163,12 +6169,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="65"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6190,19 +6196,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="66" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="52" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="52"/>
-      <c r="G111" s="54"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6229,12 +6235,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="65"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6271,95 +6277,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6384,208 +6503,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6692,6 +6698,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6875,12 +6887,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6890,6 +6896,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6905,20 +6927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E1513E-42A6-4CE2-A1CA-E7A15B3A96F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CC924-4FA1-4A11-85A7-7F31BF2FFB63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="300" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -1635,6 +1635,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1644,194 +1680,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2444,7 +2444,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P44" sqref="P44"/>
+      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="108">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="108">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="108">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="109"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="112" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="110" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="111"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="116" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="115"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="117" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="117"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="89"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="84"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2683,15 +2683,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2717,13 +2717,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="106"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2749,16 +2749,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2784,12 +2784,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2815,21 +2815,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2856,12 +2856,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2889,21 +2889,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2932,12 +2932,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2967,16 +2967,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="A15" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3004,12 +3004,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3035,19 +3035,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3076,12 +3076,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3111,19 +3111,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3152,12 +3152,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3184,19 +3184,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3223,12 +3223,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3256,15 +3256,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3291,13 +3291,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3326,16 +3326,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="64">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3362,12 +3362,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3394,19 +3394,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="62" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="54" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3435,12 +3435,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3468,19 +3468,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3509,12 +3509,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3544,19 +3544,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3585,12 +3585,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3618,19 +3618,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="62" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="54" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3659,12 +3659,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3692,16 +3692,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
+      <c r="A35" s="64">
         <v>2</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3729,12 +3729,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3759,19 +3759,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3798,12 +3798,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3831,19 +3831,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3870,12 +3870,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3903,19 +3903,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="62"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3942,12 +3942,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3975,15 +3975,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -4014,13 +4014,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="69"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="112"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="9">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -4036,22 +4036,25 @@
       <c r="O44" s="29">
         <v>11</v>
       </c>
-      <c r="P44" s="29"/>
+      <c r="P44" s="29">
+        <f>SUM(P52,P46)</f>
+        <v>14</v>
+      </c>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
+      <c r="A45" s="64">
         <v>1</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4082,12 +4085,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4097,31 +4100,34 @@
       <c r="J46" s="19"/>
       <c r="K46" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L46" s="34"/>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
+      <c r="P46" s="25">
+        <f>SUM(P48,P50)</f>
+        <v>14</v>
+      </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4150,12 +4156,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4185,19 +4191,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4226,12 +4232,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="53"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4255,16 +4261,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
+      <c r="A51" s="64">
         <v>2</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4292,12 +4298,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4319,19 +4325,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="54" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4360,12 +4366,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4387,19 +4393,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4428,12 +4434,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4455,19 +4461,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="54" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4494,12 +4500,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4521,15 +4527,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4557,13 +4563,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="69"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="112"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4583,16 +4589,16 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="52">
+      <c r="A61" s="64">
         <v>1</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4623,12 +4629,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4650,19 +4656,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="60"/>
+      <c r="E63" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4689,12 +4695,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4716,19 +4722,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="60"/>
+      <c r="E65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4755,12 +4761,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4782,19 +4788,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4821,12 +4827,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="53"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4848,16 +4854,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52">
+      <c r="A69" s="64">
         <v>2</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4885,12 +4891,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4912,19 +4918,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="54" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="54" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4953,12 +4959,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4980,19 +4986,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5019,12 +5025,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5046,19 +5052,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5085,12 +5091,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="53"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5112,15 +5118,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="111"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5148,13 +5154,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="112"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5174,16 +5180,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
+      <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5211,12 +5217,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="53"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5238,19 +5244,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="60"/>
+      <c r="E81" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5279,12 +5285,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="53"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5306,19 +5312,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="60"/>
+      <c r="E83" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5345,12 +5351,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="53"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5372,15 +5378,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="111"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5405,13 +5411,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="112"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5431,16 +5437,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52">
+      <c r="A87" s="64">
         <v>1</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5465,12 +5471,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5492,19 +5498,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="60"/>
+      <c r="E89" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5531,12 +5537,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="53"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5558,19 +5564,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="60" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="62"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5597,12 +5603,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="53"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5624,16 +5630,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
+      <c r="A93" s="64">
         <v>2</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5658,12 +5664,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5685,19 +5691,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="54" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5724,12 +5730,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="53"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5751,19 +5757,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="60" t="s">
+      <c r="D97" s="60"/>
+      <c r="E97" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="62"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5790,12 +5796,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="53"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5817,15 +5823,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="111"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5850,13 +5856,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="112"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5876,16 +5882,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="52">
+      <c r="A101" s="64">
         <v>1</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5910,12 +5916,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="53"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5937,19 +5943,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="54" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="57"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5976,12 +5982,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="53"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6003,19 +6009,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="54" t="s">
+      <c r="A105" s="64"/>
+      <c r="B105" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="60" t="s">
+      <c r="D105" s="60"/>
+      <c r="E105" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6042,12 +6048,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="53"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6069,16 +6075,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
+      <c r="A107" s="64">
         <v>2</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="64"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6103,12 +6109,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="53"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6130,19 +6136,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="60"/>
+      <c r="E109" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6169,12 +6175,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="53"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6196,19 +6202,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="64"/>
+      <c r="B111" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="60" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="62"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6235,12 +6241,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6277,19 +6283,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6314,284 +6585,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6698,12 +6704,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6887,6 +6887,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6896,22 +6902,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6927,4 +6917,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CC924-4FA1-4A11-85A7-7F31BF2FFB63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA199B0F-657A-4176-9C59-13EA0AC81361}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="870" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1635,6 +1635,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,7 +1668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,31 +1683,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1713,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,105 +1832,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
+      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="108">
         <v>43984</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="109"/>
+      <c r="N1" s="108">
         <v>43985</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="109"/>
+      <c r="P1" s="108">
         <v>43986</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="109"/>
+      <c r="R1" s="108">
         <v>43987</v>
       </c>
-      <c r="S1" s="76"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="83" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="81" t="s">
+      <c r="M3" s="115"/>
+      <c r="N3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="84" t="s">
+      <c r="Q3" s="115"/>
+      <c r="R3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="84"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="87"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="115"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2683,15 +2683,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2717,13 +2717,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2749,16 +2749,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2784,12 +2784,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2815,21 +2815,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2856,12 +2856,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2889,21 +2889,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="52" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2932,12 +2932,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2967,16 +2967,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3004,12 +3004,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3035,19 +3035,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3076,12 +3076,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3111,19 +3111,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3152,12 +3152,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3184,19 +3184,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3223,12 +3223,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3256,19 +3256,21 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="111"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="J23" s="17">
         <v>5</v>
       </c>
@@ -3291,17 +3293,19 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="112"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="J24" s="17">
         <v>5</v>
       </c>
@@ -3326,16 +3330,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="52">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3362,12 +3366,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3394,19 +3398,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3435,12 +3439,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3468,19 +3472,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3509,12 +3513,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3544,19 +3548,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3585,12 +3589,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3618,19 +3622,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="54" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="62" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3659,12 +3663,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3692,16 +3696,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="52">
         <v>2</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3729,12 +3733,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3759,19 +3763,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="52" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3798,12 +3802,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3831,19 +3835,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="52" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3870,12 +3874,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3903,19 +3907,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="52" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="54"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3942,12 +3946,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3975,19 +3979,21 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="111"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="J43" s="17">
         <v>5</v>
       </c>
@@ -4014,21 +4020,25 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="112"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="7">
+        <v>5</v>
+      </c>
       <c r="K44" s="9">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -4040,21 +4050,24 @@
         <f>SUM(P52,P46)</f>
         <v>14</v>
       </c>
-      <c r="Q44" s="29"/>
+      <c r="Q44" s="29">
+        <f>SUM(Q52,Q46)</f>
+        <v>5</v>
+      </c>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="52">
         <v>1</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4085,12 +4098,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4115,19 +4128,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="52" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4156,12 +4169,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4191,19 +4204,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="52" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="54"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4232,19 +4245,23 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
+      <c r="I50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="44">
+        <v>5</v>
+      </c>
       <c r="K50" s="9">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4261,16 +4278,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="52">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4298,12 +4315,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4313,31 +4330,34 @@
       <c r="J52" s="19"/>
       <c r="K52" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" s="34"/>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
+      <c r="Q52" s="25">
+        <f>SUM(Q54,Q56,Q58)</f>
+        <v>5</v>
+      </c>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="52" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4366,46 +4386,50 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
+      <c r="J54" s="44">
+        <v>5</v>
+      </c>
       <c r="K54" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" s="34"/>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
+      <c r="Q54" s="25">
+        <v>2</v>
+      </c>
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="52" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4434,46 +4458,50 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
+      <c r="J56" s="44">
+        <v>5</v>
+      </c>
       <c r="K56" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
+      <c r="Q56" s="25">
+        <v>2</v>
+      </c>
       <c r="R56" s="25"/>
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="52" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="54"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4500,12 +4528,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4515,27 +4543,29 @@
       <c r="J58" s="44"/>
       <c r="K58" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="36"/>
       <c r="M58" s="37"/>
       <c r="N58" s="37"/>
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
+      <c r="Q58" s="37">
+        <v>1</v>
+      </c>
       <c r="R58" s="37"/>
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="111"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4563,13 +4593,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="112"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4589,16 +4619,16 @@
       <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64">
+      <c r="A61" s="52">
         <v>1</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4629,12 +4659,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4656,19 +4686,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="52"/>
+      <c r="B63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="52" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4695,12 +4725,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4722,19 +4752,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="57"/>
+      <c r="E65" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4761,12 +4791,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4788,19 +4818,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="54"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4827,12 +4857,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4854,16 +4884,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="64">
+      <c r="A69" s="52">
         <v>2</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4891,12 +4921,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4918,19 +4948,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="52" t="s">
+      <c r="D71" s="57"/>
+      <c r="E71" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="60"/>
+      <c r="G71" s="62" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -4959,12 +4989,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4986,19 +5016,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5025,12 +5055,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5052,19 +5082,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="66" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="52" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="54"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5091,12 +5121,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5118,15 +5148,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="111"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5154,13 +5184,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="70"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="112"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5180,16 +5210,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="64">
+      <c r="A79" s="52">
         <v>1</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5217,12 +5247,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5244,19 +5274,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="66" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="52" t="s">
+      <c r="D81" s="57"/>
+      <c r="E81" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5285,12 +5315,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5312,19 +5342,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="66" t="s">
+      <c r="A83" s="52"/>
+      <c r="B83" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="52" t="s">
+      <c r="D83" s="57"/>
+      <c r="E83" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="52"/>
-      <c r="G83" s="54"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5351,12 +5381,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5378,15 +5408,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="111"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5411,13 +5441,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="70"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="112"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="69"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5437,16 +5467,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64">
+      <c r="A87" s="52">
         <v>1</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5471,12 +5501,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5498,19 +5528,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="66" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="52" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="52"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5537,12 +5567,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5564,19 +5594,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="66" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="117" t="s">
+      <c r="C91" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="52" t="s">
+      <c r="D91" s="57"/>
+      <c r="E91" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="52"/>
-      <c r="G91" s="54"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5603,12 +5633,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5630,16 +5660,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="64">
+      <c r="A93" s="52">
         <v>2</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5664,12 +5694,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5691,19 +5721,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="52" t="s">
+      <c r="D95" s="57"/>
+      <c r="E95" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="52"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5730,12 +5760,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5757,19 +5787,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="66" t="s">
+      <c r="A97" s="52"/>
+      <c r="B97" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="52" t="s">
+      <c r="D97" s="57"/>
+      <c r="E97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="52"/>
-      <c r="G97" s="54"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5796,12 +5826,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5823,15 +5853,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="111"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5856,13 +5886,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="70"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="112"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="69"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5882,16 +5912,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64">
+      <c r="A101" s="52">
         <v>1</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5916,12 +5946,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5943,19 +5973,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="66" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="52" t="s">
+      <c r="D103" s="57"/>
+      <c r="E103" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="52"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5982,12 +6012,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6009,19 +6039,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="52" t="s">
+      <c r="D105" s="57"/>
+      <c r="E105" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="52"/>
-      <c r="G105" s="54"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6048,12 +6078,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="65"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6075,16 +6105,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="64">
+      <c r="A107" s="52">
         <v>2</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6109,12 +6139,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="65"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6136,19 +6166,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="66" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="52" t="s">
+      <c r="D109" s="57"/>
+      <c r="E109" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="52"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6175,12 +6205,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="65"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6202,19 +6232,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="66" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="52" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="52"/>
-      <c r="G111" s="54"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6241,12 +6271,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="65"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6283,95 +6313,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6396,208 +6539,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6704,6 +6734,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6887,12 +6923,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6902,6 +6932,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6917,20 +6963,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA199B0F-657A-4176-9C59-13EA0AC81361}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE6549-60F0-41DF-B043-0FB86B4EE7BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="870" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="945" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2678,7 +2678,9 @@
       <c r="P6" s="39">
         <v>14</v>
       </c>
-      <c r="Q6" s="39"/>
+      <c r="Q6" s="39">
+        <v>15</v>
+      </c>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
@@ -4397,7 +4399,9 @@
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I54" s="44"/>
+      <c r="I54" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J54" s="44">
         <v>5</v>
       </c>
@@ -4469,7 +4473,9 @@
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="44"/>
+      <c r="I56" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="J56" s="44">
         <v>5</v>
       </c>
@@ -4539,8 +4545,12 @@
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
+      <c r="I58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="44">
+        <v>1</v>
+      </c>
       <c r="K58" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4607,14 +4617,17 @@
       <c r="J60" s="7"/>
       <c r="K60" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
       <c r="O60" s="29"/>
       <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
+      <c r="Q60" s="29">
+        <f>SUM(Q62,Q70)</f>
+        <v>10</v>
+      </c>
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
     </row>
@@ -4674,14 +4687,17 @@
       <c r="J62" s="19"/>
       <c r="K62" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="25"/>
       <c r="N62" s="25"/>
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
+      <c r="Q62" s="25">
+        <f>SUM(Q64,Q66)</f>
+        <v>10</v>
+      </c>
       <c r="R62" s="25"/>
       <c r="S62" s="25"/>
     </row>
@@ -4736,7 +4752,7 @@
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I64" s="44"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="44"/>
       <c r="K64" s="9">
         <f t="shared" si="2"/>
@@ -4802,18 +4818,24 @@
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
+      <c r="I66" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66" s="44">
+        <v>5</v>
+      </c>
       <c r="K66" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="25"/>
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
+      <c r="Q66" s="25">
+        <v>10</v>
+      </c>
       <c r="R66" s="25"/>
       <c r="S66" s="25"/>
     </row>
@@ -6934,15 +6956,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE6549-60F0-41DF-B043-0FB86B4EE7BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72389042-C7E1-476A-B016-7AC3CD217368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="945" windowWidth="19095" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20880" yWindow="255" windowWidth="19545" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -1635,6 +1635,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1644,194 +1680,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,17 +2441,17 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="63.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="12" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="12" customWidth="1"/>
     <col min="7" max="7" width="38.875" style="11" customWidth="1"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="108">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="108">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="108">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="109"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="112" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="110" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="111"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="116" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="115"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="117" t="s">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="117"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="89"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="84"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2681,19 +2681,23 @@
       <c r="Q6" s="39">
         <v>15</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="R6" s="39">
+        <v>14</v>
+      </c>
+      <c r="S6" s="39">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2719,13 +2723,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="106"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2751,16 +2755,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2786,12 +2790,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2817,21 +2821,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2858,12 +2862,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2891,21 +2895,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2934,12 +2938,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2969,16 +2973,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="A15" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3006,12 +3010,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3037,19 +3041,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3078,12 +3082,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3113,19 +3117,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3154,12 +3158,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3186,19 +3190,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3225,12 +3229,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3258,15 +3262,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3295,13 +3299,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3332,16 +3336,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="64">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3368,12 +3372,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3400,19 +3404,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="62" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="54" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3441,12 +3445,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3474,19 +3478,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3515,12 +3519,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3550,19 +3554,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3591,12 +3595,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3624,19 +3628,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="62" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="54" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3665,12 +3669,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3698,16 +3702,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
+      <c r="A35" s="64">
         <v>2</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3735,12 +3739,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3765,19 +3769,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3804,12 +3808,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3837,19 +3841,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3876,12 +3880,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3909,19 +3913,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="62"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3948,12 +3952,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3981,15 +3985,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -4022,13 +4026,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="69"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="112"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4040,7 +4044,7 @@
       </c>
       <c r="K44" s="9">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -4056,20 +4060,22 @@
         <f>SUM(Q52,Q46)</f>
         <v>5</v>
       </c>
-      <c r="R44" s="29"/>
+      <c r="R44" s="29">
+        <v>14</v>
+      </c>
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
+      <c r="A45" s="64">
         <v>1</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4100,12 +4106,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4130,19 +4136,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4171,12 +4177,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4206,19 +4212,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4247,12 +4253,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="53"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4280,16 +4286,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
+      <c r="A51" s="64">
         <v>2</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4317,12 +4323,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4347,19 +4353,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="54" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="60"/>
+      <c r="E53" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4388,12 +4394,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4421,19 +4427,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4462,12 +4468,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4495,19 +4501,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="54" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4534,12 +4540,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4567,15 +4573,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4603,13 +4609,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="69"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="112"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4617,7 +4623,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
@@ -4628,20 +4634,24 @@
         <f>SUM(Q62,Q70)</f>
         <v>10</v>
       </c>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
+      <c r="R60" s="29">
+        <v>14</v>
+      </c>
+      <c r="S60" s="29">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="52">
+      <c r="A61" s="64">
         <v>1</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4672,12 +4682,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4702,19 +4712,19 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="60"/>
+      <c r="E63" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4741,12 +4751,12 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4768,19 +4778,19 @@
       <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="60"/>
+      <c r="E65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4807,12 +4817,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4840,19 +4850,19 @@
       <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4879,12 +4889,12 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="53"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4906,16 +4916,16 @@
       <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52">
+      <c r="A69" s="64">
         <v>2</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4943,12 +4953,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4970,19 +4980,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="54" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="54" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -5011,12 +5021,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -5038,19 +5048,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5077,12 +5087,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5104,19 +5114,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5143,12 +5153,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="53"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5170,15 +5180,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="111"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5206,13 +5216,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="112"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5232,16 +5242,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
+      <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5269,12 +5279,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="53"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5296,19 +5306,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="60"/>
+      <c r="E81" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5337,12 +5347,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="53"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5364,19 +5374,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="60"/>
+      <c r="E83" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5403,12 +5413,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="53"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5430,15 +5440,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="111"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5463,13 +5473,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="112"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5489,16 +5499,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52">
+      <c r="A87" s="64">
         <v>1</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5523,12 +5533,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5550,19 +5560,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="60"/>
+      <c r="E89" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5589,12 +5599,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="53"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5616,19 +5626,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="60" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="62"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5655,12 +5665,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="53"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5682,16 +5692,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
+      <c r="A93" s="64">
         <v>2</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5716,12 +5726,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5743,19 +5753,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="54" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5782,12 +5792,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="53"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5809,19 +5819,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="60" t="s">
+      <c r="D97" s="60"/>
+      <c r="E97" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="62"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5848,12 +5858,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="53"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5875,15 +5885,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="111"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5908,13 +5918,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="112"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5934,16 +5944,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="52">
+      <c r="A101" s="64">
         <v>1</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5968,12 +5978,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="53"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5995,19 +6005,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="54" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="57"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="60"/>
+      <c r="E103" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6034,12 +6044,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="53"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6061,19 +6071,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="54" t="s">
+      <c r="A105" s="64"/>
+      <c r="B105" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="60" t="s">
+      <c r="D105" s="60"/>
+      <c r="E105" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6100,12 +6110,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="53"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6127,16 +6137,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
+      <c r="A107" s="64">
         <v>2</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="64"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6161,12 +6171,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="53"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6188,19 +6198,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="60"/>
+      <c r="E109" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6227,12 +6237,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="53"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6254,19 +6264,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="64"/>
+      <c r="B111" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="60" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="62"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6293,12 +6303,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6335,19 +6345,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6372,284 +6647,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6756,12 +6766,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6945,6 +6949,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6954,22 +6964,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6985,4 +6979,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72389042-C7E1-476A-B016-7AC3CD217368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D85000-4528-4D92-A183-8256E092C420}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="255" windowWidth="19545" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1635,6 +1635,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,7 +1668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,31 +1683,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1713,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,105 +1832,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2441,10 +2441,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R65" sqref="R65"/>
+      <selection pane="bottomRight" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2463,120 +2463,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="108">
         <v>43984</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="109"/>
+      <c r="N1" s="108">
         <v>43985</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="109"/>
+      <c r="P1" s="108">
         <v>43986</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="109"/>
+      <c r="R1" s="108">
         <v>43987</v>
       </c>
-      <c r="S1" s="76"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="111"/>
+      <c r="R2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="78"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="83" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="81" t="s">
+      <c r="M3" s="115"/>
+      <c r="N3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="84" t="s">
+      <c r="Q3" s="115"/>
+      <c r="R3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="84"/>
+      <c r="S3" s="117"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="87"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +2603,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="115"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="116"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2689,15 +2689,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2723,13 +2723,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2755,16 +2755,16 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="50"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2790,12 +2790,12 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="51"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2821,21 +2821,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2862,12 +2862,12 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="55"/>
       <c r="H12" s="44" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2895,21 +2895,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="52" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2938,12 +2938,12 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="55"/>
       <c r="H14" s="44" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2973,16 +2973,16 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="52">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="50"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3010,12 +3010,12 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="51"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3041,19 +3041,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3082,12 +3082,12 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="55"/>
       <c r="H18" s="44" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3117,19 +3117,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3158,12 +3158,12 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="55"/>
       <c r="H20" s="44" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3190,19 +3190,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3229,12 +3229,12 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="55"/>
       <c r="H22" s="44" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3262,15 +3262,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="111"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3299,13 +3299,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="112"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3336,16 +3336,16 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="52">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="50"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3372,12 +3372,12 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="51"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3404,19 +3404,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3445,12 +3445,12 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="55"/>
       <c r="H28" s="44" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3478,19 +3478,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3519,12 +3519,12 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="55"/>
       <c r="H30" s="44" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3554,19 +3554,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="54" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="62" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3595,12 +3595,12 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="55"/>
       <c r="H32" s="44" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3628,19 +3628,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="54" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="62" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3669,12 +3669,12 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="55"/>
       <c r="H34" s="44" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3702,16 +3702,16 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="52">
         <v>2</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="50"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3739,12 +3739,12 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="51"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3769,19 +3769,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="52" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3808,12 +3808,12 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="55"/>
       <c r="H38" s="44" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3841,19 +3841,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="52" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3880,12 +3880,12 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="55"/>
       <c r="H40" s="44" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3913,19 +3913,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="52" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="54"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3952,12 +3952,12 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="55"/>
       <c r="H42" s="44" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3985,15 +3985,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="111"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -4026,13 +4026,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="112"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4066,16 +4066,16 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="52">
         <v>1</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="50"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4106,12 +4106,12 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="51"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4136,19 +4136,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="52" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4177,12 +4177,12 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="55"/>
       <c r="H48" s="44" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4212,19 +4212,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="52" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="54"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4253,12 +4253,12 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="55"/>
       <c r="H50" s="44" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4286,16 +4286,16 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="52">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="50"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4323,12 +4323,12 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="51"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4353,19 +4353,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="52" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4394,12 +4394,12 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="55"/>
       <c r="H54" s="44" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4427,19 +4427,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="52" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4468,12 +4468,12 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="55"/>
       <c r="H56" s="44" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4501,19 +4501,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="52" t="s">
+      <c r="D57" s="57"/>
+      <c r="E57" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="54"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4540,12 +4540,12 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="55"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="55"/>
       <c r="H58" s="44" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4573,15 +4573,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="111"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4609,13 +4609,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="112"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4642,16 +4642,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64">
+      <c r="A61" s="52">
         <v>1</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="50"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4682,12 +4682,12 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="51"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4697,7 +4697,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="25"/>
@@ -4708,23 +4708,27 @@
         <f>SUM(Q64,Q66)</f>
         <v>10</v>
       </c>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
+      <c r="R62" s="25">
+        <v>14</v>
+      </c>
+      <c r="S62" s="25">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="52"/>
+      <c r="B63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="52" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="62"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4751,22 +4755,26 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="55"/>
       <c r="H64" s="44" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="44"/>
+      <c r="I64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" s="44">
+        <v>5</v>
+      </c>
       <c r="K64" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L64" s="34"/>
       <c r="M64" s="25"/>
@@ -4774,23 +4782,27 @@
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
       <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
+      <c r="R64" s="25">
+        <v>2</v>
+      </c>
+      <c r="S64" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="57"/>
+      <c r="E65" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="62"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4817,12 +4829,12 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="55"/>
       <c r="H66" s="44" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4836,7 +4848,7 @@
       </c>
       <c r="K66" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>21.5</v>
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="25"/>
@@ -4846,23 +4858,27 @@
       <c r="Q66" s="25">
         <v>10</v>
       </c>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
+      <c r="R66" s="25">
+        <v>10</v>
+      </c>
+      <c r="S66" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="52" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="54"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4889,22 +4905,26 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="55"/>
       <c r="H68" s="44" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
+      <c r="I68" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" s="44">
+        <v>5</v>
+      </c>
       <c r="K68" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="25"/>
@@ -4912,20 +4932,24 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
       <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
+      <c r="R68" s="25">
+        <v>2</v>
+      </c>
+      <c r="S68" s="25">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="64">
+      <c r="A69" s="52">
         <v>2</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="50"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4953,12 +4977,12 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="51"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4980,19 +5004,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="52" t="s">
+      <c r="D71" s="57"/>
+      <c r="E71" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="54" t="s">
+      <c r="F71" s="60"/>
+      <c r="G71" s="62" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -5021,12 +5045,12 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="55"/>
       <c r="H72" s="44" t="str">
         <f>IF(E71="","","実績")</f>
@@ -5048,19 +5072,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="52" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="62"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5087,12 +5111,12 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="55"/>
       <c r="H74" s="44" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5114,19 +5138,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="66" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="52" t="s">
+      <c r="D75" s="57"/>
+      <c r="E75" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="54"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5153,12 +5177,12 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="55"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="55"/>
       <c r="H76" s="44" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5180,15 +5204,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="111"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5216,13 +5240,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="70"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="112"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5242,16 +5266,16 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="64">
+      <c r="A79" s="52">
         <v>1</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
       <c r="G79" s="50"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5279,12 +5303,12 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="51"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5306,19 +5330,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="66" t="s">
+      <c r="A81" s="52"/>
+      <c r="B81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="52" t="s">
+      <c r="D81" s="57"/>
+      <c r="E81" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="62"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5347,12 +5371,12 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="55"/>
       <c r="H82" s="44" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5374,19 +5398,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="66" t="s">
+      <c r="A83" s="52"/>
+      <c r="B83" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="52" t="s">
+      <c r="D83" s="57"/>
+      <c r="E83" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="52"/>
-      <c r="G83" s="54"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5413,12 +5437,12 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="55"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="55"/>
       <c r="H84" s="44" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5440,15 +5464,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="67" t="s">
+      <c r="A85" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="111"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5473,13 +5497,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="70"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="112"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="69"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5499,16 +5523,16 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64">
+      <c r="A87" s="52">
         <v>1</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
       <c r="G87" s="50"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5533,12 +5557,12 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
       <c r="G88" s="51"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5560,19 +5584,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="66" t="s">
+      <c r="A89" s="52"/>
+      <c r="B89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="52" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="52"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="62"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5599,12 +5623,12 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="55"/>
       <c r="H90" s="44" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5626,19 +5650,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="66" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="117" t="s">
+      <c r="C91" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="52" t="s">
+      <c r="D91" s="57"/>
+      <c r="E91" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="52"/>
-      <c r="G91" s="54"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="62"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5665,12 +5689,12 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="55"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
       <c r="G92" s="55"/>
       <c r="H92" s="44" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5692,16 +5716,16 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="64">
+      <c r="A93" s="52">
         <v>2</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="50"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5726,12 +5750,12 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
       <c r="G94" s="51"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5753,19 +5777,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="52"/>
+      <c r="B95" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="52" t="s">
+      <c r="D95" s="57"/>
+      <c r="E95" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="52"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="62"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5792,12 +5816,12 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
       <c r="G96" s="55"/>
       <c r="H96" s="44" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5819,19 +5843,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="66" t="s">
+      <c r="A97" s="52"/>
+      <c r="B97" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="52" t="s">
+      <c r="D97" s="57"/>
+      <c r="E97" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="52"/>
-      <c r="G97" s="54"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="62"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5858,12 +5882,12 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
       <c r="G98" s="55"/>
       <c r="H98" s="44" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5885,15 +5909,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="67" t="s">
+      <c r="A99" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="111"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5918,13 +5942,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="70"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="112"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="69"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5944,16 +5968,16 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64">
+      <c r="A101" s="52">
         <v>1</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="59"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
       <c r="G101" s="50"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5978,12 +6002,12 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
       <c r="G102" s="51"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
@@ -6005,19 +6029,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="66" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="52" t="s">
+      <c r="D103" s="57"/>
+      <c r="E103" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="52"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6044,12 +6068,12 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
       <c r="G104" s="55"/>
       <c r="H104" s="44" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6071,19 +6095,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="52" t="s">
+      <c r="D105" s="57"/>
+      <c r="E105" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="52"/>
-      <c r="G105" s="54"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6110,12 +6134,12 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="65"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="55"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
       <c r="G106" s="55"/>
       <c r="H106" s="44" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6137,16 +6161,16 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="64">
+      <c r="A107" s="52">
         <v>2</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
       <c r="G107" s="50"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6171,12 +6195,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="65"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
       <c r="G108" s="51"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6198,19 +6222,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="66" t="s">
+      <c r="A109" s="52"/>
+      <c r="B109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="52" t="s">
+      <c r="D109" s="57"/>
+      <c r="E109" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="52"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6237,12 +6261,12 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="65"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
       <c r="G110" s="55"/>
       <c r="H110" s="44" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6264,19 +6288,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="66" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="52" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="52"/>
-      <c r="G111" s="54"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6303,12 +6327,12 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="65"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="55"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
       <c r="G112" s="55"/>
       <c r="H112" s="44" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6345,95 +6369,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6458,208 +6595,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
@@ -6766,6 +6790,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6949,12 +6979,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6964,6 +6988,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6979,20 +7019,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,56 +3,99 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D85000-4528-4D92-A183-8256E092C420}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CB6F6-BEDC-44E2-804D-FB0849A0B590}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20925" yWindow="255" windowWidth="19470" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="02_SHOCK" sheetId="1" r:id="rId1"/>
+    <sheet name="02_SHOCK (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="6.2~" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_06B4DFBD_5C79_4F68_BC65_4B644EFEC328_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_13300026_52A2_4B1C_AF85_0E595E74FA6A_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$42</definedName>
-    <definedName name="Z_13C6CEA1_A12C_4A33_89F7_C42E7D2D6F4C_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_1E55FDE8_1C28_486A_8B3E_42FD0F6C2C5B_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_21FBC5F9_AF3B_4473_989A_86C5A84F6064_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_2A20DDA5_C3AD_45D2_BBAE_7EF4CAD0D0A5_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_2BF0F97D_4AD0_498E_8187_CCDEB4673F6D_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_343C42DD_9251_44B2_B0A9_CFBACE255501_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_350595A1_4547_4664_AC00_794421130F85_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_3CA9D375_79FE_4C19_8F1E_68AB9CB3823D_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_408C9ACA_7488_4C10_BEC8_7E0F9F73D3C5_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_433F3EDA_51A7_4B49_958B_0F012875F8AF_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_49C0C027_3D46_416E_A323_D42EDEBD532E_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_4A2E4620_325F_4662_9CE6_35123314BFF4_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_51ABB13D_24EE_492B_9521_A374D8294F91_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_56E77848_89DE_4B72_90E9_E70847C5962A_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_5E0394B4_808B_4DAA_BA0F_DD6C2B48C4D4_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_60BF0A44_7051_4FB3_B37F_E5E315AEAC61_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_65B35576_6CD8_4479_932B_8D8438F861BA_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_6A99DAE4_A408_4B3C_9280_F3C47F95A0B1_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_6AF7E15C_8C49_48EA_9BDC_7A0EEE79AE24_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_73FF8A18_079E_4A14_99B3_579F6590DC13_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_7AE0FA4E_81C9_45EC_B2DB_C6247E14F5E0_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_8A4B12B4_91D3_4448_8425_504FF29E5A65_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_8E7AE198_3EE8_4BDE_ADE2_A63493790568_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_8FA1161B_E5C7_4B98_A276_09F3AC74935B_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_945DB674_08BC_4253_A681_8916477CFC31_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_AF8318F2_2F54_4A3D_B99D_64D1544042E4_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_C20D0F0B_6490_48F9_9B43_65E5CF186637_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_C2BF16E1_7AFA_43D9_AD3E_7077A0E61F43_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_C44183A6_D8EF_40F3_8BE1_8B99DF4211BA_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_C4CDCC8E_83D2_43EC_AE5F_18F8961A982A_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_C8D5D480_2A49_40BE_B7A6_454EA23640FF_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_D1EAD80E_E4BF_4EBC_BAEB_CAB23319AEE9_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_D5EBC936_A13E_4C94_82B6_E58FEDF178A0_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_DDCCCC0A_A081_4F8C_9525_39840C27F342_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_DF660335_9F5E_4A1D_B503_E1BBFDACAE7F_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_E065FE35_0834_4DD0_B998_91253A3BB47D_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_E7CD2CEA_4573_49C3_BCAB_C3B229B6682B_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
-    <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">'02_SHOCK'!$A$2:$K$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_06B4DFBD_5C79_4F68_BC65_4B644EFEC328_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_06B4DFBD_5C79_4F68_BC65_4B644EFEC328_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_13300026_52A2_4B1C_AF85_0E595E74FA6A_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$42</definedName>
+    <definedName name="Z_13300026_52A2_4B1C_AF85_0E595E74FA6A_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$42</definedName>
+    <definedName name="Z_13C6CEA1_A12C_4A33_89F7_C42E7D2D6F4C_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_13C6CEA1_A12C_4A33_89F7_C42E7D2D6F4C_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_1E55FDE8_1C28_486A_8B3E_42FD0F6C2C5B_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_1E55FDE8_1C28_486A_8B3E_42FD0F6C2C5B_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_21FBC5F9_AF3B_4473_989A_86C5A84F6064_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_21FBC5F9_AF3B_4473_989A_86C5A84F6064_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_2A20DDA5_C3AD_45D2_BBAE_7EF4CAD0D0A5_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_2A20DDA5_C3AD_45D2_BBAE_7EF4CAD0D0A5_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_2BF0F97D_4AD0_498E_8187_CCDEB4673F6D_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_2BF0F97D_4AD0_498E_8187_CCDEB4673F6D_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_343C42DD_9251_44B2_B0A9_CFBACE255501_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_343C42DD_9251_44B2_B0A9_CFBACE255501_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_350595A1_4547_4664_AC00_794421130F85_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_350595A1_4547_4664_AC00_794421130F85_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_3CA9D375_79FE_4C19_8F1E_68AB9CB3823D_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_3CA9D375_79FE_4C19_8F1E_68AB9CB3823D_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_408C9ACA_7488_4C10_BEC8_7E0F9F73D3C5_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_408C9ACA_7488_4C10_BEC8_7E0F9F73D3C5_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_433F3EDA_51A7_4B49_958B_0F012875F8AF_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_433F3EDA_51A7_4B49_958B_0F012875F8AF_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_49C0C027_3D46_416E_A323_D42EDEBD532E_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_49C0C027_3D46_416E_A323_D42EDEBD532E_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_4A2E4620_325F_4662_9CE6_35123314BFF4_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_4A2E4620_325F_4662_9CE6_35123314BFF4_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_51ABB13D_24EE_492B_9521_A374D8294F91_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_51ABB13D_24EE_492B_9521_A374D8294F91_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_56E77848_89DE_4B72_90E9_E70847C5962A_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_56E77848_89DE_4B72_90E9_E70847C5962A_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_5E0394B4_808B_4DAA_BA0F_DD6C2B48C4D4_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_5E0394B4_808B_4DAA_BA0F_DD6C2B48C4D4_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_60BF0A44_7051_4FB3_B37F_E5E315AEAC61_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_60BF0A44_7051_4FB3_B37F_E5E315AEAC61_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_65B35576_6CD8_4479_932B_8D8438F861BA_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_65B35576_6CD8_4479_932B_8D8438F861BA_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_6A99DAE4_A408_4B3C_9280_F3C47F95A0B1_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_6A99DAE4_A408_4B3C_9280_F3C47F95A0B1_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_6AF7E15C_8C49_48EA_9BDC_7A0EEE79AE24_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_6AF7E15C_8C49_48EA_9BDC_7A0EEE79AE24_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_73FF8A18_079E_4A14_99B3_579F6590DC13_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_73FF8A18_079E_4A14_99B3_579F6590DC13_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_7AE0FA4E_81C9_45EC_B2DB_C6247E14F5E0_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_7AE0FA4E_81C9_45EC_B2DB_C6247E14F5E0_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_8A4B12B4_91D3_4448_8425_504FF29E5A65_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_8A4B12B4_91D3_4448_8425_504FF29E5A65_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_8E7AE198_3EE8_4BDE_ADE2_A63493790568_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_8E7AE198_3EE8_4BDE_ADE2_A63493790568_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_8FA1161B_E5C7_4B98_A276_09F3AC74935B_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_8FA1161B_E5C7_4B98_A276_09F3AC74935B_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_945DB674_08BC_4253_A681_8916477CFC31_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_945DB674_08BC_4253_A681_8916477CFC31_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_AF8318F2_2F54_4A3D_B99D_64D1544042E4_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_AF8318F2_2F54_4A3D_B99D_64D1544042E4_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_C20D0F0B_6490_48F9_9B43_65E5CF186637_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_C20D0F0B_6490_48F9_9B43_65E5CF186637_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_C2BF16E1_7AFA_43D9_AD3E_7077A0E61F43_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_C2BF16E1_7AFA_43D9_AD3E_7077A0E61F43_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_C44183A6_D8EF_40F3_8BE1_8B99DF4211BA_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_C44183A6_D8EF_40F3_8BE1_8B99DF4211BA_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_C4CDCC8E_83D2_43EC_AE5F_18F8961A982A_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_C4CDCC8E_83D2_43EC_AE5F_18F8961A982A_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_C8D5D480_2A49_40BE_B7A6_454EA23640FF_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_C8D5D480_2A49_40BE_B7A6_454EA23640FF_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_D1EAD80E_E4BF_4EBC_BAEB_CAB23319AEE9_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_D1EAD80E_E4BF_4EBC_BAEB_CAB23319AEE9_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_D5EBC936_A13E_4C94_82B6_E58FEDF178A0_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_D5EBC936_A13E_4C94_82B6_E58FEDF178A0_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_DDCCCC0A_A081_4F8C_9525_39840C27F342_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_DDCCCC0A_A081_4F8C_9525_39840C27F342_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_DF660335_9F5E_4A1D_B503_E1BBFDACAE7F_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_DF660335_9F5E_4A1D_B503_E1BBFDACAE7F_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_E065FE35_0834_4DD0_B998_91253A3BB47D_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_E065FE35_0834_4DD0_B998_91253A3BB47D_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_E7CD2CEA_4573_49C3_BCAB_C3B229B6682B_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_E7CD2CEA_4573_49C3_BCAB_C3B229B6682B_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
+    <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">'02_SHOCK (2)'!$A$2:$K$112</definedName>
+    <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="1">'6.2~'!$A$2:$K$112</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,6 +110,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{67FB78EA-C01B-4FC5-A561-8A67E0415FF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>以下の式で自動算出する
+担当人数×時間
+上記式では、正確に記録できない項目のみ、手動入力すること</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -94,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="70">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -651,6 +721,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日目</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1486,7 +1573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,34 +1716,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,13 +1734,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,10 +1743,31 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1711,96 +1792,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,11 +1824,362 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1978,6 +2320,95 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7BC97C-4A44-4EF1-B7BA-C2371050B489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9267825" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>上段：予定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>下段：実績</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2437,11 +2868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBD4F0B-C89E-4777-A9D5-F6D5DEA98673}">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="N68" sqref="N68"/>
@@ -2463,120 +2894,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="78" t="s">
+      <c r="I1" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="108">
+      <c r="L1" s="76">
         <v>43984</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108">
+      <c r="M1" s="77"/>
+      <c r="N1" s="76">
         <v>43985</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="108">
+      <c r="O1" s="77"/>
+      <c r="P1" s="76">
         <v>43986</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="108">
+      <c r="Q1" s="77"/>
+      <c r="R1" s="76">
         <v>43987</v>
       </c>
-      <c r="S1" s="109"/>
+      <c r="S1" s="77"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="112" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="110" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="111"/>
+      <c r="S2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="116" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="115"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="83"/>
+      <c r="N3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="117" t="s">
+      <c r="Q3" s="83"/>
+      <c r="R3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="117"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="89"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2603,15 +3034,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
@@ -2650,13 +3081,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="84"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2689,15 +3120,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="105"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2723,13 +3154,13 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="106"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2755,17 +3186,17 @@
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="52">
+      <c r="A9" s="65">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="50"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="18" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -2790,13 +3221,13 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="51"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="19" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -2821,21 +3252,21 @@
       <c r="S10" s="25"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2862,21 +3293,21 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="44" t="str">
+      <c r="A12" s="66"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="50" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="50">
         <v>5</v>
       </c>
       <c r="K12" s="9">
@@ -2895,21 +3326,21 @@
       <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="60" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2938,21 +3369,21 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="44" t="str">
+      <c r="A14" s="66"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="50" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="50">
         <v>5</v>
       </c>
       <c r="K14" s="9">
@@ -2973,17 +3404,17 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="A15" s="65">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="18" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3010,13 +3441,13 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="51"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="19" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3041,19 +3472,19 @@
       <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3082,14 +3513,14 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="44" t="str">
+      <c r="A18" s="66"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="50" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
@@ -3117,19 +3548,19 @@
       <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="60" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3158,14 +3589,14 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="44" t="str">
+      <c r="A20" s="66"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="50" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
@@ -3190,19 +3621,19 @@
       <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3229,14 +3660,14 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="44" t="str">
+      <c r="A22" s="66"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="50" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
@@ -3262,15 +3693,15 @@
       <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="112"/>
       <c r="H23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3299,13 +3730,13 @@
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3336,17 +3767,17 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="65">
         <v>1</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="50"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="18" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3372,13 +3803,13 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="51"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="19" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3404,19 +3835,19 @@
       <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="62" t="s">
+      <c r="F27" s="53"/>
+      <c r="G27" s="55" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -3445,14 +3876,14 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="44" t="str">
+      <c r="A28" s="66"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="50" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
@@ -3478,19 +3909,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="60" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3519,14 +3950,14 @@
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="44" t="str">
+      <c r="A30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="50" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
@@ -3554,19 +3985,19 @@
       <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="53"/>
+      <c r="G31" s="55" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -3595,14 +4026,14 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="44" t="str">
+      <c r="A32" s="66"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="50" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
@@ -3628,19 +4059,19 @@
       <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="62" t="s">
+      <c r="F33" s="53"/>
+      <c r="G33" s="55" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="8" t="str">
@@ -3669,21 +4100,21 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="44" t="str">
+      <c r="A34" s="66"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="50" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="50">
         <v>5</v>
       </c>
       <c r="K34" s="9">
@@ -3702,17 +4133,17 @@
       <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="52">
+      <c r="A35" s="65">
         <v>2</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="50"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="18" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3739,13 +4170,13 @@
       <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="51"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="19" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3769,19 +4200,19 @@
       <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3808,21 +4239,21 @@
       <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="44" t="str">
+      <c r="A38" s="66"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="50" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="50">
         <v>5</v>
       </c>
       <c r="K38" s="9">
@@ -3841,19 +4272,19 @@
       <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="60" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3880,21 +4311,21 @@
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="44" t="str">
+      <c r="A40" s="66"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="50" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="50">
         <v>5</v>
       </c>
       <c r="K40" s="9">
@@ -3913,19 +4344,19 @@
       <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="62"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -3952,21 +4383,21 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="53"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="44" t="str">
+      <c r="A42" s="66"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="50" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J42" s="50">
         <v>1</v>
       </c>
       <c r="K42" s="9">
@@ -3985,15 +4416,15 @@
       <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="17" t="s">
         <v>19</v>
       </c>
@@ -4026,13 +4457,13 @@
       <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="69"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4066,17 +4497,17 @@
       <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52">
+      <c r="A45" s="65">
         <v>1</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="50"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="18" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4106,13 +4537,13 @@
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="51"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="19" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4136,19 +4567,19 @@
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="62"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4177,21 +4608,21 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="53"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="44" t="str">
+      <c r="A48" s="66"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="50" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="44">
+      <c r="J48" s="50">
         <v>5</v>
       </c>
       <c r="K48" s="9">
@@ -4212,19 +4643,19 @@
       <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="61"/>
+      <c r="E49" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4253,21 +4684,21 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="53"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="44" t="str">
+      <c r="A50" s="66"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="50" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J50" s="44">
+      <c r="J50" s="50">
         <v>5</v>
       </c>
       <c r="K50" s="9">
@@ -4286,17 +4717,17 @@
       <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="52">
+      <c r="A51" s="65">
         <v>2</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="50"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="51"/>
       <c r="H51" s="18" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4323,13 +4754,13 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="51"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="52"/>
       <c r="H52" s="19" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4353,19 +4784,19 @@
       <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="54" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="60" t="s">
+      <c r="D53" s="61"/>
+      <c r="E53" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="62"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4394,21 +4825,21 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="44" t="str">
+      <c r="A54" s="66"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="50" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J54" s="44">
+      <c r="J54" s="50">
         <v>5</v>
       </c>
       <c r="K54" s="9">
@@ -4427,19 +4858,19 @@
       <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
-      <c r="B55" s="54" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="61"/>
+      <c r="E55" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="62"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4468,21 +4899,21 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="44" t="str">
+      <c r="A56" s="66"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="50" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J56" s="44">
+      <c r="J56" s="50">
         <v>5</v>
       </c>
       <c r="K56" s="9">
@@ -4501,19 +4932,19 @@
       <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
-      <c r="B57" s="54" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="61"/>
+      <c r="E57" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4540,21 +4971,21 @@
       <c r="S57" s="24"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="44" t="str">
+      <c r="A58" s="66"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="50" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J58" s="44">
+      <c r="J58" s="50">
         <v>1</v>
       </c>
       <c r="K58" s="9">
@@ -4573,15 +5004,15 @@
       <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="112"/>
       <c r="H59" s="17" t="s">
         <v>19</v>
       </c>
@@ -4609,13 +5040,13 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="69"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="113"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4642,17 +5073,17 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="52">
+      <c r="A61" s="65">
         <v>1</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="50"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="51"/>
       <c r="H61" s="18" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4682,13 +5113,13 @@
       <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="51"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="52"/>
       <c r="H62" s="19" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4716,19 +5147,19 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="54" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="61"/>
+      <c r="E63" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="62"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4755,21 +5186,21 @@
       <c r="S63" s="24"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="44" t="str">
+      <c r="A64" s="66"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="50" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J64" s="44">
+      <c r="J64" s="50">
         <v>5</v>
       </c>
       <c r="K64" s="9">
@@ -4790,19 +5221,19 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="54" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4829,21 +5260,21 @@
       <c r="S65" s="24"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="44" t="str">
+      <c r="A66" s="66"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="50" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="50">
         <v>5</v>
       </c>
       <c r="K66" s="9">
@@ -4866,19 +5297,19 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="54" t="s">
+      <c r="A67" s="65"/>
+      <c r="B67" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="60" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4905,21 +5336,21 @@
       <c r="S67" s="24"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="53"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="44" t="str">
+      <c r="A68" s="66"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="50" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J68" s="44">
+      <c r="J68" s="50">
         <v>5</v>
       </c>
       <c r="K68" s="9">
@@ -4940,17 +5371,17 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52">
+      <c r="A69" s="65">
         <v>2</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="50"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="51"/>
       <c r="H69" s="18" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4977,13 +5408,13 @@
       <c r="S69" s="24"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="53"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="51"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="52"/>
       <c r="H70" s="19" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5004,19 +5435,19 @@
       <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
-      <c r="B71" s="54" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="60" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62" t="s">
+      <c r="F71" s="53"/>
+      <c r="G71" s="55" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="8" t="str">
@@ -5045,19 +5476,19 @@
       <c r="S71" s="24"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="44" t="str">
+      <c r="A72" s="66"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="50" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
       <c r="K72" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5072,19 +5503,19 @@
       <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="65"/>
+      <c r="B73" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="60" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5111,19 +5542,19 @@
       <c r="S73" s="24"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="44" t="str">
+      <c r="A74" s="66"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="50" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
       <c r="K74" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5138,19 +5569,19 @@
       <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
-      <c r="B75" s="54" t="s">
+      <c r="A75" s="65"/>
+      <c r="B75" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="60" t="s">
+      <c r="D75" s="61"/>
+      <c r="E75" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="62"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5177,19 +5608,19 @@
       <c r="S75" s="24"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="53"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="44" t="str">
+      <c r="A76" s="66"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="50" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
       <c r="K76" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5204,15 +5635,15 @@
       <c r="S76" s="37"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="68"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="112"/>
       <c r="H77" s="17" t="s">
         <v>19</v>
       </c>
@@ -5240,13 +5671,13 @@
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="113"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5266,17 +5697,17 @@
       <c r="S78" s="29"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="52">
+      <c r="A79" s="65">
         <v>1</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="50"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="51"/>
       <c r="H79" s="18" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5303,13 +5734,13 @@
       <c r="S79" s="24"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="53"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="51"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="52"/>
       <c r="H80" s="19" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5330,19 +5761,19 @@
       <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
-      <c r="B81" s="54" t="s">
+      <c r="A81" s="65"/>
+      <c r="B81" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="60" t="s">
+      <c r="D81" s="61"/>
+      <c r="E81" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5371,19 +5802,19 @@
       <c r="S81" s="24"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="53"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="44" t="str">
+      <c r="A82" s="66"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="50" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
       <c r="K82" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5398,19 +5829,19 @@
       <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="54" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D83" s="57"/>
-      <c r="E83" s="60" t="s">
+      <c r="D83" s="61"/>
+      <c r="E83" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="60"/>
-      <c r="G83" s="62"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5437,19 +5868,19 @@
       <c r="S83" s="24"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="53"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="44" t="str">
+      <c r="A84" s="66"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="50" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
       <c r="K84" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5464,15 +5895,15 @@
       <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="112"/>
       <c r="H85" s="17" t="s">
         <v>19</v>
       </c>
@@ -5497,13 +5928,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="113"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5523,17 +5954,17 @@
       <c r="S86" s="29"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52">
+      <c r="A87" s="65">
         <v>1</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="50"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="51"/>
       <c r="H87" s="18" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5557,13 +5988,13 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="53"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="51"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="52"/>
       <c r="H88" s="19" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5584,19 +6015,19 @@
       <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="54" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="60" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5623,19 +6054,19 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="53"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="44" t="str">
+      <c r="A90" s="66"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="50" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
       <c r="K90" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5650,19 +6081,19 @@
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
-      <c r="B91" s="54" t="s">
+      <c r="A91" s="65"/>
+      <c r="B91" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="60" t="s">
+      <c r="D91" s="61"/>
+      <c r="E91" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="62"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -5689,19 +6120,19 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="53"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="44" t="str">
+      <c r="A92" s="66"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="50" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
       <c r="K92" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5716,17 +6147,17 @@
       <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="52">
+      <c r="A93" s="65">
         <v>2</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="50"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="51"/>
       <c r="H93" s="18" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5750,13 +6181,13 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="53"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="51"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="52"/>
       <c r="H94" s="19" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5777,19 +6208,19 @@
       <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="54" t="s">
+      <c r="A95" s="65"/>
+      <c r="B95" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="60" t="s">
+      <c r="D95" s="61"/>
+      <c r="E95" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5816,19 +6247,19 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="53"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="44" t="str">
+      <c r="A96" s="66"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="50" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
       <c r="K96" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5843,19 +6274,19 @@
       <c r="S96" s="25"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="65"/>
+      <c r="B97" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="60" t="s">
+      <c r="D97" s="61"/>
+      <c r="E97" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="62"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -5882,19 +6313,19 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="53"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="44" t="str">
+      <c r="A98" s="66"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="50" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
       <c r="K98" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5909,15 +6340,15 @@
       <c r="S98" s="37"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="112"/>
       <c r="H99" s="17" t="s">
         <v>19</v>
       </c>
@@ -5942,13 +6373,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="113"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5968,17 +6399,17 @@
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="52">
+      <c r="A101" s="65">
         <v>1</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="50"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="51"/>
       <c r="H101" s="18" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6002,13 +6433,13 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="53"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="51"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="52"/>
       <c r="H102" s="19" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6029,19 +6460,19 @@
       <c r="S102" s="25"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="54" t="s">
+      <c r="A103" s="65"/>
+      <c r="B103" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="57"/>
-      <c r="E103" s="60" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="62"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6068,19 +6499,19 @@
       </c>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="53"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="44" t="str">
+      <c r="A104" s="66"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="50" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="50"/>
       <c r="K104" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6095,19 +6526,19 @@
       <c r="S104" s="25"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
-      <c r="B105" s="54" t="s">
+      <c r="A105" s="65"/>
+      <c r="B105" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="60" t="s">
+      <c r="D105" s="61"/>
+      <c r="E105" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F105" s="60"/>
-      <c r="G105" s="62"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6134,19 +6565,19 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="53"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="61"/>
-      <c r="F106" s="61"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="44" t="str">
+      <c r="A106" s="66"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="50" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
       <c r="K106" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6161,17 +6592,17 @@
       <c r="S106" s="25"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52">
+      <c r="A107" s="65">
         <v>2</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="64"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="50"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="51"/>
       <c r="H107" s="18" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -6195,13 +6626,13 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="53"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="51"/>
+      <c r="A108" s="66"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="52"/>
       <c r="H108" s="19" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -6222,19 +6653,19 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="54" t="s">
+      <c r="A109" s="65"/>
+      <c r="B109" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="60" t="s">
+      <c r="D109" s="61"/>
+      <c r="E109" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="62"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6261,19 +6692,19 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="53"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="59"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="44" t="str">
+      <c r="A110" s="66"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="50" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
       <c r="K110" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6288,19 +6719,19 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="65"/>
+      <c r="B111" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="60" t="s">
+      <c r="D111" s="61"/>
+      <c r="E111" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="60"/>
-      <c r="G111" s="62"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="55"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -6327,19 +6758,19 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="55"/>
-      <c r="H112" s="44" t="str">
+      <c r="A112" s="66"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="50" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
       <c r="K112" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6369,19 +6800,4887 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
     <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="C111:D112"/>
     <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
+    <cfRule type="expression" dxfId="53" priority="17" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="18" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:S58">
+    <cfRule type="expression" dxfId="51" priority="15" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="16" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:S20">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:S64 L67:S76">
+    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="12" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:S84">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:S22">
+    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:S38 L41:S42">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:S40">
+    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:S66">
+    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103:E106 E17:E22 E109:E112 E11:E14 E27:E34 E47:E50 E53:E58 E37:E42 E71:E76 E63:E68 E89:E92 E81:E84 E95:E98" xr:uid="{4488961A-871A-4B73-A85F-C1456D936320}">
+      <formula1>"新規作成,更新,レビュー参加,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35 E15 E9 E23:E25 E99:E101 E107 E43:E45 E51 E59:E61 E69 E77:E79 E85:E87 E93" xr:uid="{C3C94C98-F3A0-4CB7-B219-1C885AE91FC1}">
+      <formula1>"新規作成,更新,レビュー参加"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F101:F112 F9:F22 F25:F35 F45:F58 F37:F42 F61:F76 F79:F84 F87:F98" xr:uid="{DA81357F-F998-4399-811E-5E6BE02F77D8}">
+      <formula1>"着手,完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E113:E65594" xr:uid="{166006AE-DAE2-43BB-B285-59FA775D2AF8}">
+      <formula1>"新規作成,更新"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.62992125984251968" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="8" scale="77" fitToHeight="4" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U113"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="H57" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="W73" sqref="W73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="2.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="38.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="76">
+        <v>43984</v>
+      </c>
+      <c r="M1" s="77"/>
+      <c r="N1" s="76">
+        <v>43985</v>
+      </c>
+      <c r="O1" s="77"/>
+      <c r="P1" s="76">
+        <v>43986</v>
+      </c>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="76">
+        <v>43987</v>
+      </c>
+      <c r="S1" s="77"/>
+      <c r="T1" s="76">
+        <v>43990</v>
+      </c>
+      <c r="U1" s="77"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="96"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="79"/>
+      <c r="N2" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="78"/>
+      <c r="P2" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="79"/>
+      <c r="T2" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="79"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="96"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="83"/>
+      <c r="N3" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="83"/>
+      <c r="P3" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="85"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="97"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="20">
+        <v>14</v>
+      </c>
+      <c r="M5" s="20">
+        <v>15</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" ref="N5:S5" si="0">SUM(N7,N23,N43,N59,N77,N85,N99)</f>
+        <v>14</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" ref="T5:U5" si="1">SUM(T7,T23,T43,T59,T77,T85,T99)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39">
+        <v>14</v>
+      </c>
+      <c r="M6" s="39">
+        <v>15</v>
+      </c>
+      <c r="N6" s="39">
+        <v>14</v>
+      </c>
+      <c r="O6" s="39">
+        <v>15</v>
+      </c>
+      <c r="P6" s="39">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>15</v>
+      </c>
+      <c r="R6" s="39">
+        <v>14</v>
+      </c>
+      <c r="S6" s="39">
+        <v>15</v>
+      </c>
+      <c r="T6" s="39">
+        <v>14</v>
+      </c>
+      <c r="U6" s="39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="47">
+        <f>SUM(L7:S7)</f>
+        <v>24</v>
+      </c>
+      <c r="L7" s="33">
+        <v>14</v>
+      </c>
+      <c r="M7" s="33">
+        <v>10</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
+        <v>5</v>
+      </c>
+      <c r="K8" s="48">
+        <f t="shared" ref="K8:K10" si="2">SUM(L8:S8)</f>
+        <v>19.5</v>
+      </c>
+      <c r="L8" s="31">
+        <v>14</v>
+      </c>
+      <c r="M8" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="65">
+        <v>1</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="18" t="str">
+        <f>IF(E9="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="49">
+        <f t="shared" si="2"/>
+        <v>20.3</v>
+      </c>
+      <c r="L9" s="23">
+        <v>13.5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>6.8</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="66"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="19" t="str">
+        <f>IF(E9="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="48">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L10" s="34">
+        <v>13.5</v>
+      </c>
+      <c r="M10" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+    </row>
+    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="65"/>
+      <c r="B11" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="8" t="str">
+        <f>IF(E11="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="K11" s="9">
+        <f>SUM(L11:S11)</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="26">
+        <v>10</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+    </row>
+    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="66"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="44" t="str">
+        <f>IF(E11="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="44">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9">
+        <f>SUM(L12:S12)</f>
+        <v>10</v>
+      </c>
+      <c r="L12" s="34">
+        <v>10</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="8" t="str">
+        <f>IF(E13="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" ref="K13:K76" si="3">SUM(L13:S13)</f>
+        <v>10.3</v>
+      </c>
+      <c r="L13" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="M13" s="24">
+        <v>6.8</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+    </row>
+    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="66"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="44" t="str">
+        <f>IF(E13="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="44">
+        <v>5</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="M14" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+    </row>
+    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="65">
+        <v>2</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="18" t="str">
+        <f>IF(E15="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="9">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="L15" s="26">
+        <f>SUM(L17,L19,L21)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="26">
+        <f>SUM(M17,M19,M21)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+    </row>
+    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="66"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="19" t="str">
+        <f>IF(E15="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="25">
+        <v>3</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="8" t="str">
+        <f>IF(E17="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="24">
+        <v>2</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+    </row>
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="66"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="44" t="str">
+        <f>IF(E17="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="25">
+        <v>2</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="8" t="str">
+        <f>IF(E19="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
+        <v>1</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+    </row>
+    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="66"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="44" t="str">
+        <f>IF(E19="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="8">
+        <v>5</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="34"/>
+      <c r="M20" s="25">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+    </row>
+    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="8" t="str">
+        <f>IF(E21="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+    </row>
+    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="66"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="44" t="str">
+        <f>IF(E21="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="34"/>
+      <c r="M22" s="25">
+        <v>1</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+    </row>
+    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="17">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28">
+        <v>5</v>
+      </c>
+      <c r="N23" s="28">
+        <f>SUM(N25,N35)</f>
+        <v>10</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+    </row>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="17">
+        <v>5</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="29">
+        <v>9.5</v>
+      </c>
+      <c r="N24" s="29">
+        <f>SUM(N26,N36)</f>
+        <v>14</v>
+      </c>
+      <c r="O24" s="29">
+        <v>4</v>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="65">
+        <v>1</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="18" t="str">
+        <f>IF(E25="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="M25" s="24">
+        <v>5</v>
+      </c>
+      <c r="N25" s="24">
+        <f>SUM(N27,N29,N31,N33)</f>
+        <v>4</v>
+      </c>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+    </row>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="66"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="19" t="str">
+        <f>IF(E25="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="9">
+        <f t="shared" si="3"/>
+        <v>23.5</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="N26" s="25">
+        <f>SUM(N30,N34,N38,N40,N42)</f>
+        <v>14</v>
+      </c>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+    </row>
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="65"/>
+      <c r="B27" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="8" t="str">
+        <f>IF(E27="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="8">
+        <v>3</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24">
+        <v>1</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+    </row>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="66"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="44" t="str">
+        <f>IF(E27="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="8">
+        <v>3</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41">
+        <v>1</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+    </row>
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="65"/>
+      <c r="B29" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="8" t="str">
+        <f>IF(E29="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="8">
+        <v>5</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24">
+        <v>3</v>
+      </c>
+      <c r="N29" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+    </row>
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="44" t="str">
+        <f>IF(E29="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41">
+        <v>5</v>
+      </c>
+      <c r="N30" s="25">
+        <v>11</v>
+      </c>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+    </row>
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="65"/>
+      <c r="B31" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <f>IF(E31="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24">
+        <v>1</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+    </row>
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="66"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="44" t="str">
+        <f>IF(E31="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+    </row>
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="65"/>
+      <c r="B33" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="8" t="str">
+        <f>IF(E33="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="8">
+        <v>2</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+    </row>
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="66"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="44" t="str">
+        <f>IF(E33="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="44">
+        <v>5</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L34" s="34"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25">
+        <v>3</v>
+      </c>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+    </row>
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="65">
+        <v>2</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="18" t="str">
+        <f>IF(E35="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" s="24">
+        <f>SUM(M37,M39,M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="24">
+        <f>SUM(N37,N39,N41)</f>
+        <v>6</v>
+      </c>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+    </row>
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="66"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="19" t="str">
+        <f>IF(E35="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L36" s="34"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25">
+        <f>SUM(O38,O40,O42,)</f>
+        <v>4</v>
+      </c>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+    </row>
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="65"/>
+      <c r="B37" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="8" t="str">
+        <f>IF(E37="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="8">
+        <v>5</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L37" s="26"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24">
+        <v>2</v>
+      </c>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+    </row>
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="66"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="44" t="str">
+        <f>IF(E37="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="45">
+        <v>5</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L38" s="34"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="25">
+        <v>2</v>
+      </c>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+    </row>
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="65"/>
+      <c r="B39" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="8" t="str">
+        <f>IF(E39="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="8">
+        <v>5</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+    </row>
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="66"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="44" t="str">
+        <f>IF(E39="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="44">
+        <v>5</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="40"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25">
+        <v>1</v>
+      </c>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+    </row>
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="65"/>
+      <c r="B41" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="8" t="str">
+        <f>IF(E41="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+    </row>
+    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="66"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="44" t="str">
+        <f>IF(E41="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="44">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25">
+        <v>1</v>
+      </c>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+    </row>
+    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="17">
+        <v>5</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28">
+        <f>SUM(N45,N51)</f>
+        <v>4</v>
+      </c>
+      <c r="O43" s="28">
+        <f t="shared" ref="O43:P43" si="4">SUM(O45,O51)</f>
+        <v>15</v>
+      </c>
+      <c r="P43" s="28">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+    </row>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="7">
+        <v>5</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29">
+        <v>11</v>
+      </c>
+      <c r="P44" s="29">
+        <f>SUM(P52,P46)</f>
+        <v>14</v>
+      </c>
+      <c r="Q44" s="29">
+        <f>SUM(Q52,Q46)</f>
+        <v>5</v>
+      </c>
+      <c r="R44" s="29">
+        <v>14</v>
+      </c>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+    </row>
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="65">
+        <v>1</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="18" t="str">
+        <f>IF(E45="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="9">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24">
+        <f>SUM(N47,N49)</f>
+        <v>4</v>
+      </c>
+      <c r="O45" s="24">
+        <f t="shared" ref="O45:P45" si="5">SUM(O47,O49)</f>
+        <v>12.5</v>
+      </c>
+      <c r="P45" s="24">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+    </row>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="66"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="19" t="str">
+        <f>IF(E45="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L46" s="34"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25">
+        <f>SUM(P48,P50)</f>
+        <v>14</v>
+      </c>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+    </row>
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="65"/>
+      <c r="B47" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="8" t="str">
+        <f>IF(E47="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="8">
+        <v>5</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24">
+        <v>4</v>
+      </c>
+      <c r="O47" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+    </row>
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="66"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="44" t="str">
+        <f>IF(E47="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="44">
+        <v>5</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L48" s="34"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25">
+        <v>11</v>
+      </c>
+      <c r="P48" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+    </row>
+    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="65"/>
+      <c r="B49" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="8" t="str">
+        <f>IF(E49="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="8">
+        <v>5</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="L49" s="26"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24">
+        <v>5</v>
+      </c>
+      <c r="P49" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+    </row>
+    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="66"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="44" t="str">
+        <f>IF(E49="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="44">
+        <v>5</v>
+      </c>
+      <c r="K50" s="9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L50" s="34"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+    </row>
+    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="65">
+        <v>2</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="18" t="str">
+        <f>IF(E51="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="L51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24">
+        <f>SUM(O53,O55,O57)</f>
+        <v>2.5</v>
+      </c>
+      <c r="P51" s="24">
+        <f>SUM(P53,P55,P57)</f>
+        <v>4</v>
+      </c>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+    </row>
+    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="66"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="19" t="str">
+        <f>IF(E51="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L52" s="34"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25">
+        <f>SUM(Q54,Q56,Q58)</f>
+        <v>5</v>
+      </c>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+    </row>
+    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="65"/>
+      <c r="B53" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="8" t="str">
+        <f>IF(E53="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="8">
+        <v>5</v>
+      </c>
+      <c r="K53" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="L53" s="26"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="P53" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+    </row>
+    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="66"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="44" t="str">
+        <f>IF(E53="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="44">
+        <v>5</v>
+      </c>
+      <c r="K54" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L54" s="34"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25">
+        <v>2</v>
+      </c>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+    </row>
+    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="65"/>
+      <c r="B55" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="61"/>
+      <c r="E55" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="8" t="str">
+        <f>IF(E55="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="8">
+        <v>5</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="L55" s="26"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24">
+        <v>1</v>
+      </c>
+      <c r="P55" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+    </row>
+    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="66"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="44" t="str">
+        <f>IF(E55="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="44">
+        <v>5</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L56" s="34"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25">
+        <v>2</v>
+      </c>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+    </row>
+    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="65"/>
+      <c r="B57" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="53"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="8" t="str">
+        <f>IF(E57="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L57" s="26"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+    </row>
+    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="66"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="44" t="str">
+        <f>IF(E57="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="44">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37">
+        <v>1</v>
+      </c>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+    </row>
+    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17">
+        <v>5</v>
+      </c>
+      <c r="K59" s="9">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="46">
+        <f>SUM(P61,P69)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q59" s="46">
+        <f>SUM(Q61,Q69)</f>
+        <v>10</v>
+      </c>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+    </row>
+    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="71"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="9">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29">
+        <f>SUM(Q62,Q70)</f>
+        <v>10</v>
+      </c>
+      <c r="R60" s="29">
+        <v>14</v>
+      </c>
+      <c r="S60" s="29">
+        <v>15</v>
+      </c>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+    </row>
+    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="65">
+        <v>1</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="18" t="str">
+        <f>IF(E61="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="9">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="L61" s="26"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24">
+        <f>SUM(P63,P65,P67)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q61" s="24">
+        <f>SUM(Q63,Q65,Q67)</f>
+        <v>5</v>
+      </c>
+      <c r="R61" s="24">
+        <f>SUM(R63,R65,R67)</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+    </row>
+    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="66"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="19" t="str">
+        <f>IF(E61="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="9">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="L62" s="34"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25">
+        <f>SUM(Q64,Q66)</f>
+        <v>10</v>
+      </c>
+      <c r="R62" s="25">
+        <v>14</v>
+      </c>
+      <c r="S62" s="25">
+        <v>15</v>
+      </c>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+    </row>
+    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="65"/>
+      <c r="B63" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="53"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="8" t="str">
+        <f>IF(E63="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63" s="8">
+        <v>5</v>
+      </c>
+      <c r="K63" s="9">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="L63" s="26"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+    </row>
+    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="66"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="44" t="str">
+        <f>IF(E63="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" s="44">
+        <v>5</v>
+      </c>
+      <c r="K64" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="L64" s="34"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25">
+        <v>2</v>
+      </c>
+      <c r="S64" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+    </row>
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="65"/>
+      <c r="B65" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="53"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="8" t="str">
+        <f>IF(E65="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="8">
+        <v>5</v>
+      </c>
+      <c r="K65" s="9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L65" s="26"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+    </row>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="66"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="44" t="str">
+        <f>IF(E65="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66" s="44">
+        <v>5</v>
+      </c>
+      <c r="K66" s="9">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="L66" s="34"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25">
+        <v>10</v>
+      </c>
+      <c r="R66" s="25">
+        <v>10</v>
+      </c>
+      <c r="S66" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+    </row>
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="65"/>
+      <c r="B67" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="53"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="8" t="str">
+        <f>IF(E67="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="8">
+        <v>5</v>
+      </c>
+      <c r="K67" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L67" s="26"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24">
+        <v>5</v>
+      </c>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+    </row>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="66"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="44" t="str">
+        <f>IF(E67="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" s="44">
+        <v>5</v>
+      </c>
+      <c r="K68" s="9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L68" s="34"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25">
+        <v>2</v>
+      </c>
+      <c r="S68" s="25">
+        <v>12</v>
+      </c>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+    </row>
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="65">
+        <v>2</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="18" t="str">
+        <f>IF(E69="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L69" s="26"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24">
+        <f>SUM(P71,P73,P75)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="24">
+        <f>SUM(Q71,Q73,Q75)</f>
+        <v>5</v>
+      </c>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+    </row>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="66"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="19" t="str">
+        <f>IF(E69="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="34"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+    </row>
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="65"/>
+      <c r="B71" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="61"/>
+      <c r="E71" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" s="8" t="str">
+        <f>IF(E71="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J71" s="8">
+        <v>5</v>
+      </c>
+      <c r="K71" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L71" s="26"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24">
+        <v>3</v>
+      </c>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+    </row>
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="66"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="44" t="str">
+        <f>IF(E71="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44">
+        <v>5</v>
+      </c>
+      <c r="K72" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="34"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25">
+        <v>3</v>
+      </c>
+      <c r="U72" s="25"/>
+    </row>
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="65"/>
+      <c r="B73" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="61"/>
+      <c r="E73" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="8" t="str">
+        <f>IF(E73="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="8">
+        <v>5</v>
+      </c>
+      <c r="K73" s="9">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="L73" s="26"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+    </row>
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="66"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="44" t="str">
+        <f>IF(E73="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44">
+        <v>5</v>
+      </c>
+      <c r="K74" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="34"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="U74" s="25"/>
+    </row>
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="65"/>
+      <c r="B75" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="61"/>
+      <c r="E75" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="8" t="str">
+        <f>IF(E75="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J75" s="8">
+        <v>1</v>
+      </c>
+      <c r="K75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L75" s="26"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+    </row>
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="66"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="44" t="str">
+        <f>IF(E75="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44">
+        <v>1</v>
+      </c>
+      <c r="K76" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="36"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="U76" s="37"/>
+    </row>
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17">
+        <v>5</v>
+      </c>
+      <c r="K77" s="9">
+        <f t="shared" ref="K77:K112" si="6">SUM(L77:S77)</f>
+        <v>19</v>
+      </c>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28">
+        <f>Q79</f>
+        <v>5</v>
+      </c>
+      <c r="R77" s="28">
+        <f>R79</f>
+        <v>14</v>
+      </c>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+    </row>
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="71"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="113"/>
+      <c r="H78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+    </row>
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="65">
+        <v>1</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="18" t="str">
+        <f>IF(E79="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="9">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="L79" s="26"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24">
+        <f>SUM(Q81,Q83)</f>
+        <v>5</v>
+      </c>
+      <c r="R79" s="24">
+        <f>SUM(R81,R83)</f>
+        <v>14</v>
+      </c>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="24"/>
+    </row>
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="66"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="19" t="str">
+        <f>IF(E79="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="34"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+    </row>
+    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="65"/>
+      <c r="B81" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="61"/>
+      <c r="E81" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="53"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="8" t="str">
+        <f>IF(E81="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J81" s="8">
+        <v>5</v>
+      </c>
+      <c r="K81" s="9">
+        <f t="shared" si="6"/>
+        <v>11.5</v>
+      </c>
+      <c r="L81" s="26"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24">
+        <v>5</v>
+      </c>
+      <c r="R81" s="24">
+        <v>6.5</v>
+      </c>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+    </row>
+    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="66"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="44" t="str">
+        <f>IF(E81="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="34"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+    </row>
+    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="65"/>
+      <c r="B83" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="61"/>
+      <c r="E83" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="53"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="8" t="str">
+        <f>IF(E83="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J83" s="8">
+        <v>5</v>
+      </c>
+      <c r="K83" s="9">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="L83" s="26"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="S83" s="24"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="24"/>
+    </row>
+    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="66"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="44" t="str">
+        <f>IF(E83="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="34"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+    </row>
+    <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17">
+        <v>5</v>
+      </c>
+      <c r="K85" s="9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28">
+        <f>SUM(S87,S93)</f>
+        <v>10</v>
+      </c>
+      <c r="T85" s="28"/>
+      <c r="U85" s="28"/>
+    </row>
+    <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="71"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="113"/>
+      <c r="H86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="30"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+    </row>
+    <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="65">
+        <v>1</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="18" t="str">
+        <f>IF(E87="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L87" s="26"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24">
+        <f>SUM(S89,S91)</f>
+        <v>6</v>
+      </c>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+    </row>
+    <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="66"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="19" t="str">
+        <f>IF(E87="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="34"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+    </row>
+    <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="65"/>
+      <c r="B89" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="61"/>
+      <c r="E89" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="8" t="str">
+        <f>IF(E89="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J89" s="8">
+        <v>5</v>
+      </c>
+      <c r="K89" s="9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L89" s="26"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24">
+        <v>5</v>
+      </c>
+      <c r="T89" s="24"/>
+      <c r="U89" s="24"/>
+    </row>
+    <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="66"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="44" t="str">
+        <f>IF(E89="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="34"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+    </row>
+    <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="65"/>
+      <c r="B91" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="61"/>
+      <c r="E91" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="53"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="8" t="str">
+        <f>IF(E91="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J91" s="8">
+        <v>5</v>
+      </c>
+      <c r="K91" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L91" s="26"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24">
+        <v>1</v>
+      </c>
+      <c r="T91" s="24"/>
+      <c r="U91" s="24"/>
+    </row>
+    <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="66"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="44" t="str">
+        <f>IF(E91="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="34"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+    </row>
+    <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="65">
+        <v>2</v>
+      </c>
+      <c r="B93" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="60"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="18" t="str">
+        <f>IF(E93="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L93" s="26"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24">
+        <f>SUM(S95,S97)</f>
+        <v>4</v>
+      </c>
+      <c r="T93" s="24"/>
+      <c r="U93" s="24"/>
+    </row>
+    <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="66"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="19" t="str">
+        <f>IF(E93="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="34"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+    </row>
+    <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="65"/>
+      <c r="B95" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="61"/>
+      <c r="E95" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="8" t="str">
+        <f>IF(E95="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J95" s="8">
+        <v>5</v>
+      </c>
+      <c r="K95" s="9">
+        <f t="shared" si="6"/>
+        <v>3.8</v>
+      </c>
+      <c r="L95" s="26"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="T95" s="24"/>
+      <c r="U95" s="24"/>
+    </row>
+    <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="66"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="44" t="str">
+        <f>IF(E95="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="34"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+    </row>
+    <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="65"/>
+      <c r="B97" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="61"/>
+      <c r="E97" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" s="53"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="8" t="str">
+        <f>IF(E97="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J97" s="8">
+        <v>1</v>
+      </c>
+      <c r="K97" s="9">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="L97" s="26"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="T97" s="24"/>
+      <c r="U97" s="24"/>
+    </row>
+    <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="66"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="44" t="str">
+        <f>IF(E97="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="36"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+    </row>
+    <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17">
+        <v>5</v>
+      </c>
+      <c r="K99" s="9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28">
+        <f>SUM(S101,S107)</f>
+        <v>5</v>
+      </c>
+      <c r="T99" s="28"/>
+      <c r="U99" s="28"/>
+    </row>
+    <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="71"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="113"/>
+      <c r="H100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+    </row>
+    <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="65">
+        <v>1</v>
+      </c>
+      <c r="B101" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="60"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="18" t="str">
+        <f>IF(E101="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="9">
+        <f t="shared" si="6"/>
+        <v>3.8</v>
+      </c>
+      <c r="L101" s="26"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24">
+        <f>SUM(S103,S105)</f>
+        <v>3.8</v>
+      </c>
+      <c r="T101" s="24"/>
+      <c r="U101" s="24"/>
+    </row>
+    <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="66"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="19" t="str">
+        <f>IF(E101="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="34"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+    </row>
+    <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="65"/>
+      <c r="B103" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="61"/>
+      <c r="E103" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="53"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="8" t="str">
+        <f>IF(E103="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J103" s="8">
+        <v>5</v>
+      </c>
+      <c r="K103" s="9">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="L103" s="26"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="T103" s="24"/>
+      <c r="U103" s="24"/>
+    </row>
+    <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="66"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="44" t="str">
+        <f>IF(E103="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="34"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
+      <c r="T104" s="25"/>
+      <c r="U104" s="25"/>
+    </row>
+    <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="65"/>
+      <c r="B105" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="61"/>
+      <c r="E105" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" s="53"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="8" t="str">
+        <f>IF(E105="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J105" s="8">
+        <v>5</v>
+      </c>
+      <c r="K105" s="9">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="L105" s="26"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="T105" s="24"/>
+      <c r="U105" s="24"/>
+    </row>
+    <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="66"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="44" t="str">
+        <f>IF(E105="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
+      <c r="K106" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="34"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
+      <c r="T106" s="25"/>
+      <c r="U106" s="25"/>
+    </row>
+    <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="65">
+        <v>2</v>
+      </c>
+      <c r="B107" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="60"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="18" t="str">
+        <f>IF(E107="","","予定")</f>
+        <v/>
+      </c>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="9">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="L107" s="26"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24">
+        <f>SUM(S109,S111)</f>
+        <v>1.2</v>
+      </c>
+      <c r="T107" s="24"/>
+      <c r="U107" s="24"/>
+    </row>
+    <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="66"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="19" t="str">
+        <f>IF(E107="","","実績")</f>
+        <v/>
+      </c>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="34"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+    </row>
+    <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="65"/>
+      <c r="B109" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="61"/>
+      <c r="E109" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="53"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="8" t="str">
+        <f>IF(E109="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J109" s="8">
+        <v>5</v>
+      </c>
+      <c r="K109" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L109" s="26"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24">
+        <v>1</v>
+      </c>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+    </row>
+    <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="66"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="56"/>
+      <c r="H110" s="44" t="str">
+        <f>IF(E109="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="34"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+    </row>
+    <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="65"/>
+      <c r="B111" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="61"/>
+      <c r="E111" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F111" s="53"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="8" t="str">
+        <f>IF(E111="","","予定")</f>
+        <v>予定</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J111" s="8">
+        <v>1</v>
+      </c>
+      <c r="K111" s="9">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="L111" s="26"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+    </row>
+    <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="66"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="44" t="str">
+        <f>IF(E111="","","実績")</f>
+        <v>実績</v>
+      </c>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="34"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+    </row>
+    <row r="113" spans="12:19" x14ac:dyDescent="0.15">
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:K112" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="318">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6406,356 +11705,163 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L87:S98 L101:S112 L25:S36 L9:S18">
-    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="L25:S36 L9:S18 L87:S98 L101:S112">
+    <cfRule type="expression" dxfId="35" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="46" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:S58">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="44" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="41" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="42" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:S64 L67:S76">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="39" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="33" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="34" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:S40">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:S66">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L65), L65&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L65), L65&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:U36 T9:U18 T87:U98 T101:U112">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T45:U58">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:U20">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T19), T19&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T19), T19&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61:U64 T67:U76">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T61), T61&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T61), T61&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T79:U84">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T79), T79&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T79), T79&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:U22">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T21), T21&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T21), T21&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37:U38 T41:U42">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T37), T37&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T37), T37&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39:U40">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T39), T39&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T39), T39&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65:U66">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T65), T65&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T65), T65&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6790,12 +11896,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6979,6 +12079,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>
@@ -6988,22 +12094,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964BCDFB-475F-4C51-9F63-B8D3420BD88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7019,4 +12109,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/WBSガントチャート_02_SHOCK.xlsx
+++ b/01計画/WBSガントチャート_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CB6F6-BEDC-44E2-804D-FB0849A0B590}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7F994-F603-409F-99A1-4B750B51D39D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20925" yWindow="255" windowWidth="19470" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="19470" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_SHOCK (2)" sheetId="2" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="70">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1719,46 +1719,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1768,6 +1732,42 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontI